--- a/sample-data/Concrete Compressiveness Strength Data/Concrete_Data.xlsx
+++ b/sample-data/Concrete Compressiveness Strength Data/Concrete_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_70F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechVillage Laptop01\Documents\WorkItems\ml-tut\sample-data\Concrete Compressiveness Strength Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DDC24F-C1CE-4EF8-A7A6-2C7FE91ED690}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D757996-BBF6-4AC0-8618-9F51254ED42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="11715" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,40 +24,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Cement (component 1)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Cement </t>
   </si>
   <si>
-    <t>Blast Furnace Slag (component 2)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Blast Furnace Slag </t>
   </si>
   <si>
-    <t>Fly Ash (component 3)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Fly Ash </t>
   </si>
   <si>
-    <t>Water  (component 4)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Water  </t>
   </si>
   <si>
-    <t>Superplasticizer (component 5)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Superplasticizer</t>
   </si>
   <si>
-    <t>Coarse Aggregate  (component 6)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Coarse Aggregate  </t>
   </si>
   <si>
-    <t>Fine Aggregate (component 7)(kg in a m^3 mixture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Fine Aggregate </t>
   </si>
   <si>
-    <t>Age (day)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Age </t>
   </si>
   <si>
-    <t xml:space="preserve">Concrete compressive strength(MPa, megapascals) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Concrete compressive strength</t>
   </si>
 </sst>
 </file>
@@ -70,7 +61,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -480,11 +471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
@@ -496,7 +487,7 @@
     <col min="9" max="9" width="11.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.75" thickBot="1">
+    <row r="1" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>540</v>
       </c>
@@ -554,7 +545,7 @@
         <v>79.986110760000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>540</v>
       </c>
@@ -583,7 +574,7 @@
         <v>61.887365759999994</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>332.5</v>
       </c>
@@ -612,7 +603,7 @@
         <v>40.269535256000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>332.5</v>
       </c>
@@ -641,7 +632,7 @@
         <v>41.052779991999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>198.6</v>
       </c>
@@ -670,7 +661,7 @@
         <v>44.296075096000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>266</v>
       </c>
@@ -699,7 +690,7 @@
         <v>47.029847436000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>380</v>
       </c>
@@ -728,7 +719,7 @@
         <v>43.698299403999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>380</v>
       </c>
@@ -757,7 +748,7 @@
         <v>36.447769788000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>266</v>
       </c>
@@ -786,7 +777,7 @@
         <v>45.854290855999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>475</v>
       </c>
@@ -815,7 +806,7 @@
         <v>39.289789859999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>198.6</v>
       </c>
@@ -844,7 +835,7 @@
         <v>38.074243671999994</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>198.6</v>
       </c>
@@ -873,7 +864,7 @@
         <v>28.021683591999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>427.5</v>
       </c>
@@ -902,7 +893,7 @@
         <v>43.01296026</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>190</v>
       </c>
@@ -931,7 +922,7 @@
         <v>42.326931639999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>304</v>
       </c>
@@ -960,7 +951,7 @@
         <v>47.813781648000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>380</v>
       </c>
@@ -989,7 +980,7 @@
         <v>52.908319811999995</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>139.6</v>
       </c>
@@ -1018,7 +1009,7 @@
         <v>39.358047983999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>342</v>
       </c>
@@ -1047,7 +1038,7 @@
         <v>56.141962251999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>380</v>
       </c>
@@ -1076,7 +1067,7 @@
         <v>40.563252031999994</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>475</v>
       </c>
@@ -1105,7 +1096,7 @@
         <v>42.620648416000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>427.5</v>
       </c>
@@ -1134,7 +1125,7 @@
         <v>41.836714203999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>139.6</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>28.237489579999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>139.6</v>
       </c>
@@ -1192,7 +1183,7 @@
         <v>8.0634218200000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>139.6</v>
       </c>
@@ -1221,7 +1212,7 @@
         <v>44.207822168</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>380</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>52.516697443999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>380</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>53.300631656</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>380</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>41.151375059999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>342</v>
       </c>
@@ -1337,7 +1328,7 @@
         <v>52.124385599999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>427.5</v>
       </c>
@@ -1366,7 +1357,7 @@
         <v>37.427515183999994</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>475</v>
       </c>
@@ -1395,7 +1386,7 @@
         <v>38.603761239999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>304</v>
       </c>
@@ -1424,7 +1415,7 @@
         <v>55.260122447999997</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>266</v>
       </c>
@@ -1453,7 +1444,7 @@
         <v>52.908319811999995</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>198.6</v>
       </c>
@@ -1482,7 +1473,7 @@
         <v>41.719503283999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>475</v>
       </c>
@@ -1511,7 +1502,7 @@
         <v>42.131120455999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>190</v>
       </c>
@@ -1540,7 +1531,7 @@
         <v>53.692254023999993</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>237.5</v>
       </c>
@@ -1569,7 +1560,7 @@
         <v>38.407950056000004</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>237.5</v>
       </c>
@@ -1598,7 +1589,7 @@
         <v>30.079769451999997</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>332.5</v>
       </c>
@@ -1627,7 +1618,7 @@
         <v>37.721921436000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>475</v>
       </c>
@@ -1656,7 +1647,7 @@
         <v>42.229026048000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>237.5</v>
       </c>
@@ -1685,7 +1676,7 @@
         <v>36.251958603999995</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>342</v>
       </c>
@@ -1714,7 +1705,7 @@
         <v>50.459301060000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>427.5</v>
       </c>
@@ -1743,7 +1734,7 @@
         <v>43.698299403999997</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>237.5</v>
       </c>
@@ -1772,7 +1763,7 @@
         <v>38.995383607999997</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>380</v>
       </c>
@@ -1801,7 +1792,7 @@
         <v>53.104130996000002</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>427.5</v>
       </c>
@@ -1830,7 +1821,7 @@
         <v>41.542997428</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>427.5</v>
       </c>
@@ -1859,7 +1850,7 @@
         <v>35.076402023999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>349</v>
       </c>
@@ -1888,7 +1879,7 @@
         <v>15.049192651999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>380</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>40.759063216000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>237.5</v>
       </c>
@@ -1946,7 +1937,7 @@
         <v>26.258003983999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>380</v>
       </c>
@@ -1975,7 +1966,7 @@
         <v>32.823194456000003</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>332.5</v>
       </c>
@@ -2004,7 +1995,7 @@
         <v>39.779317819999996</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>190</v>
       </c>
@@ -2033,7 +2024,7 @@
         <v>46.931941843999994</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>237.5</v>
       </c>
@@ -2062,7 +2053,7 @@
         <v>33.116911232</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>304</v>
       </c>
@@ -2091,7 +2082,7 @@
         <v>49.185149411999994</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>139.6</v>
       </c>
@@ -2120,7 +2111,7 @@
         <v>14.589312159999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>198.6</v>
       </c>
@@ -2149,7 +2140,7 @@
         <v>14.638264955999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>475</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>41.934619796</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>198.6</v>
       </c>
@@ -2207,7 +2198,7 @@
         <v>9.1314201439999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>304</v>
       </c>
@@ -2236,7 +2227,7 @@
         <v>50.948829019999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>332.5</v>
       </c>
@@ -2265,7 +2256,7 @@
         <v>33.019005639999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>304</v>
       </c>
@@ -2294,7 +2285,7 @@
         <v>54.378282643999995</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>266</v>
       </c>
@@ -2323,7 +2314,7 @@
         <v>51.732763231999996</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>310</v>
       </c>
@@ -2352,7 +2343,7 @@
         <v>9.8664015599999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>190</v>
       </c>
@@ -2381,7 +2372,7 @@
         <v>50.655112243999994</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>266</v>
       </c>
@@ -2410,7 +2401,7 @@
         <v>48.695621451999997</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>342</v>
       </c>
@@ -2439,7 +2430,7 @@
         <v>55.064311263999997</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>139.6</v>
       </c>
@@ -2468,7 +2459,7 @@
         <v>44.698039603999995</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>332.5</v>
       </c>
@@ -2497,7 +2488,7 @@
         <v>30.275580636000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>190</v>
       </c>
@@ -2526,7 +2517,7 @@
         <v>40.856968807999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>485</v>
       </c>
@@ -2555,7 +2546,7 @@
         <v>71.988189160000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>374</v>
       </c>
@@ -2584,7 +2575,7 @@
         <v>34.397957640000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>313.3</v>
       </c>
@@ -2613,7 +2604,7 @@
         <v>28.799412520000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>425</v>
       </c>
@@ -2642,7 +2633,7 @@
         <v>33.398217439999996</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>425</v>
       </c>
@@ -2671,7 +2662,7 @@
         <v>36.300911399999997</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>375</v>
       </c>
@@ -2700,7 +2691,7 @@
         <v>28.99936056</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>475</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>37.79707432</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>469</v>
       </c>
@@ -2758,7 +2749,7 @@
         <v>40.196450800000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>425</v>
       </c>
@@ -2787,7 +2778,7 @@
         <v>33.398217439999996</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>388.6</v>
       </c>
@@ -2816,7 +2807,7 @@
         <v>28.096146999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>531.29999999999995</v>
       </c>
@@ -2845,7 +2836,7 @@
         <v>41.299612400000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>425</v>
       </c>
@@ -2874,7 +2865,7 @@
         <v>33.398217439999996</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>318.8</v>
       </c>
@@ -2903,7 +2894,7 @@
         <v>25.200347799999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>401.8</v>
       </c>
@@ -2932,7 +2923,7 @@
         <v>41.099664359999998</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>362.6</v>
       </c>
@@ -2961,7 +2952,7 @@
         <v>35.301171199999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>323.7</v>
       </c>
@@ -2990,7 +2981,7 @@
         <v>28.296095039999997</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>379.5</v>
       </c>
@@ -3019,7 +3010,7 @@
         <v>28.599464479999998</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>362.6</v>
       </c>
@@ -3048,7 +3039,7 @@
         <v>35.301171199999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>286.3</v>
       </c>
@@ -3077,7 +3068,7 @@
         <v>24.40055564</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>362.6</v>
       </c>
@@ -3106,7 +3097,7 @@
         <v>35.301171199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>439</v>
       </c>
@@ -3135,7 +3126,7 @@
         <v>39.300131999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>389.9</v>
       </c>
@@ -3164,7 +3155,7 @@
         <v>40.596346879999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>362.6</v>
       </c>
@@ -3193,7 +3184,7 @@
         <v>35.301171199999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>337.9</v>
       </c>
@@ -3222,7 +3213,7 @@
         <v>24.097186199999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>374</v>
       </c>
@@ -3251,7 +3242,7 @@
         <v>46.201786759999997</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>313.3</v>
       </c>
@@ -3280,7 +3271,7 @@
         <v>42.795775319999997</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>425</v>
       </c>
@@ -3309,7 +3300,7 @@
         <v>49.201007359999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>425</v>
       </c>
@@ -3338,7 +3329,7 @@
         <v>46.801630879999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>375</v>
       </c>
@@ -3367,7 +3358,7 @@
         <v>45.698469279999998</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>475</v>
       </c>
@@ -3396,7 +3387,7 @@
         <v>55.599344639999998</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>469</v>
       </c>
@@ -3425,7 +3416,7 @@
         <v>54.896079119999996</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>425</v>
       </c>
@@ -3454,7 +3445,7 @@
         <v>49.201007359999998</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>388.6</v>
       </c>
@@ -3483,7 +3474,7 @@
         <v>34.901275120000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>531.29999999999995</v>
       </c>
@@ -3512,7 +3503,7 @@
         <v>46.898157519999998</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>425</v>
       </c>
@@ -3541,7 +3532,7 @@
         <v>49.201007359999998</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>318.8</v>
       </c>
@@ -3570,7 +3561,7 @@
         <v>33.398217439999996</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>401.8</v>
       </c>
@@ -3599,7 +3590,7 @@
         <v>54.09628696</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>362.6</v>
       </c>
@@ -3628,7 +3619,7 @@
         <v>55.895819320000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>323.7</v>
       </c>
@@ -3657,7 +3648,7 @@
         <v>49.800851479999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>379.5</v>
       </c>
@@ -3686,7 +3677,7 @@
         <v>47.09810556</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>362.6</v>
       </c>
@@ -3715,7 +3706,7 @@
         <v>55.895819320000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>286.3</v>
       </c>
@@ -3744,7 +3735,7 @@
         <v>37.997022359999995</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>362.6</v>
       </c>
@@ -3773,7 +3764,7 @@
         <v>55.895819320000001</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>439</v>
       </c>
@@ -3802,7 +3793,7 @@
         <v>56.095767359999996</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>389.9</v>
       </c>
@@ -3831,7 +3822,7 @@
         <v>59.094987959999997</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>362.6</v>
       </c>
@@ -3860,7 +3851,7 @@
         <v>22.897497959999999</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>337.9</v>
       </c>
@@ -3889,7 +3880,7 @@
         <v>35.101223159999996</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>374</v>
       </c>
@@ -3918,7 +3909,7 @@
         <v>61.09446836</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>313.3</v>
       </c>
@@ -3947,7 +3938,7 @@
         <v>59.79825348</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>425</v>
       </c>
@@ -3976,7 +3967,7 @@
         <v>60.294676199999998</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>425</v>
       </c>
@@ -4005,7 +3996,7 @@
         <v>61.797733879999996</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>375</v>
       </c>
@@ -4034,7 +4025,7 @@
         <v>56.695611479999997</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>475</v>
       </c>
@@ -4063,7 +4054,7 @@
         <v>68.299492560000004</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>469</v>
       </c>
@@ -4092,7 +4083,7 @@
         <v>66.899856279999995</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>425</v>
       </c>
@@ -4121,7 +4112,7 @@
         <v>60.294676199999998</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>388.6</v>
       </c>
@@ -4150,7 +4141,7 @@
         <v>50.697170280000002</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>531.29999999999995</v>
       </c>
@@ -4179,7 +4170,7 @@
         <v>56.399136800000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>425</v>
       </c>
@@ -4208,7 +4199,7 @@
         <v>60.294676199999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>318.8</v>
       </c>
@@ -4237,7 +4228,7 @@
         <v>55.495923239999996</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>401.8</v>
       </c>
@@ -4266,7 +4257,7 @@
         <v>68.4994406</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>362.6</v>
       </c>
@@ -4295,7 +4286,7 @@
         <v>71.298713159999991</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>323.7</v>
       </c>
@@ -4324,7 +4315,7 @@
         <v>74.697829839999997</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>379.5</v>
       </c>
@@ -4353,7 +4344,7 @@
         <v>52.200227959999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>362.6</v>
       </c>
@@ -4382,7 +4373,7 @@
         <v>71.298713159999991</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>286.3</v>
       </c>
@@ -4411,7 +4402,7 @@
         <v>67.699648440000004</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>362.6</v>
       </c>
@@ -4440,7 +4431,7 @@
         <v>71.298713159999991</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>439</v>
       </c>
@@ -4469,7 +4460,7 @@
         <v>65.996642719999997</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>389.9</v>
       </c>
@@ -4498,7 +4489,7 @@
         <v>74.497881800000002</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>362.6</v>
       </c>
@@ -4527,7 +4518,7 @@
         <v>71.298713159999991</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>337.9</v>
       </c>
@@ -4556,7 +4547,7 @@
         <v>49.897378119999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>374</v>
       </c>
@@ -4585,7 +4576,7 @@
         <v>63.397318200000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>313.3</v>
       </c>
@@ -4614,7 +4605,7 @@
         <v>64.900375879999999</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>425</v>
       </c>
@@ -4643,7 +4634,7 @@
         <v>64.300531759999998</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>425</v>
       </c>
@@ -4672,7 +4663,7 @@
         <v>64.900375879999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>375</v>
       </c>
@@ -4701,7 +4692,7 @@
         <v>60.198149559999997</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>475</v>
       </c>
@@ -4730,7 +4721,7 @@
         <v>72.298453359999996</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>469</v>
       </c>
@@ -4759,7 +4750,7 @@
         <v>69.299232759999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>425</v>
       </c>
@@ -4788,7 +4779,7 @@
         <v>64.300531759999998</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>388.6</v>
       </c>
@@ -4817,7 +4808,7 @@
         <v>55.19944856</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>531.29999999999995</v>
       </c>
@@ -4846,7 +4837,7 @@
         <v>58.798513279999995</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>425</v>
       </c>
@@ -4875,7 +4866,7 @@
         <v>64.300531759999998</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>318.8</v>
       </c>
@@ -4904,7 +4895,7 @@
         <v>66.100064119999999</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>401.8</v>
       </c>
@@ -4933,7 +4924,7 @@
         <v>73.698089639999992</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>362.6</v>
       </c>
@@ -4962,7 +4953,7 @@
         <v>77.297154359999993</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>323.7</v>
       </c>
@@ -4991,7 +4982,7 @@
         <v>80.199848320000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>379.5</v>
       </c>
@@ -5020,7 +5011,7 @@
         <v>54.896079119999996</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>362.6</v>
       </c>
@@ -5049,7 +5040,7 @@
         <v>77.297154359999993</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>286.3</v>
       </c>
@@ -5078,7 +5069,7 @@
         <v>72.994824120000004</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>362.6</v>
       </c>
@@ -5107,7 +5098,7 @@
         <v>77.297154359999993</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>439</v>
       </c>
@@ -5136,7 +5127,7 @@
         <v>71.698609239999996</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>389.9</v>
       </c>
@@ -5165,7 +5156,7 @@
         <v>79.400056159999991</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>362.6</v>
       </c>
@@ -5194,7 +5185,7 @@
         <v>77.297154359999993</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>337.9</v>
       </c>
@@ -5223,7 +5214,7 @@
         <v>59.89478012</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>374</v>
       </c>
@@ -5252,7 +5243,7 @@
         <v>64.900375879999999</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>313.3</v>
       </c>
@@ -5281,7 +5272,7 @@
         <v>66.596486839999997</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>425</v>
       </c>
@@ -5310,7 +5301,7 @@
         <v>65.196850560000001</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>425</v>
       </c>
@@ -5339,7 +5330,7 @@
         <v>66.699908239999999</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>375</v>
       </c>
@@ -5368,7 +5359,7 @@
         <v>62.500999399999998</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>475</v>
       </c>
@@ -5397,7 +5388,7 @@
         <v>74.194512360000004</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>469</v>
       </c>
@@ -5426,7 +5417,7 @@
         <v>70.698869039999991</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>425</v>
       </c>
@@ -5455,7 +5446,7 @@
         <v>65.196850560000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>388.6</v>
       </c>
@@ -5484,7 +5475,7 @@
         <v>57.598825040000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>531.29999999999995</v>
       </c>
@@ -5513,7 +5504,7 @@
         <v>59.198409359999999</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>425</v>
       </c>
@@ -5542,7 +5533,7 @@
         <v>65.196850560000001</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>318.8</v>
       </c>
@@ -5571,7 +5562,7 @@
         <v>68.099544519999995</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>401.8</v>
       </c>
@@ -5600,7 +5591,7 @@
         <v>75.497621999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>362.6</v>
       </c>
@@ -5629,7 +5620,7 @@
         <v>79.296634760000003</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>379.5</v>
       </c>
@@ -5658,7 +5649,7 @@
         <v>56.495663440000001</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>362.6</v>
       </c>
@@ -5687,7 +5678,7 @@
         <v>79.296634760000003</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>286.3</v>
       </c>
@@ -5716,7 +5707,7 @@
         <v>76.800731639999995</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>362.6</v>
       </c>
@@ -5745,7 +5736,7 @@
         <v>79.296634760000003</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>439</v>
       </c>
@@ -5774,7 +5765,7 @@
         <v>73.298193560000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>389.9</v>
       </c>
@@ -5803,7 +5794,7 @@
         <v>82.599224800000002</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>362.6</v>
       </c>
@@ -5832,7 +5823,7 @@
         <v>79.296634760000003</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>337.9</v>
       </c>
@@ -5861,7 +5852,7 @@
         <v>67.796175079999998</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>222.36</v>
       </c>
@@ -5890,7 +5881,7 @@
         <v>11.57630204</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>222.36</v>
       </c>
@@ -5919,7 +5910,7 @@
         <v>24.448818960000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>222.36</v>
       </c>
@@ -5948,7 +5939,7 @@
         <v>24.890083600000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>222.36</v>
       </c>
@@ -5977,7 +5968,7 @@
         <v>29.447519959999997</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>222.36</v>
       </c>
@@ -6006,7 +5997,7 @@
         <v>40.713557799999997</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>233.81</v>
       </c>
@@ -6035,7 +6026,7 @@
         <v>10.383508559999999</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>233.81</v>
       </c>
@@ -6064,7 +6055,7 @@
         <v>22.139074359999999</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>233.81</v>
       </c>
@@ -6093,7 +6084,7 @@
         <v>22.835445119999999</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>233.81</v>
       </c>
@@ -6122,7 +6113,7 @@
         <v>27.66177712</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>233.81</v>
       </c>
@@ -6151,7 +6142,7 @@
         <v>34.556537120000002</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194.68</v>
       </c>
@@ -6180,7 +6171,7 @@
         <v>12.45193656</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>194.68</v>
       </c>
@@ -6209,7 +6200,7 @@
         <v>24.986610239999997</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>194.68</v>
       </c>
@@ -6238,7 +6229,7 @@
         <v>25.72434956</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>194.68</v>
       </c>
@@ -6267,7 +6258,7 @@
         <v>33.963587759999996</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>194.68</v>
       </c>
@@ -6296,7 +6287,7 @@
         <v>37.342020159999997</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>190.68</v>
       </c>
@@ -6325,7 +6316,7 @@
         <v>15.04436632</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>190.68</v>
       </c>
@@ -6354,7 +6345,7 @@
         <v>21.063491799999998</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>190.68</v>
       </c>
@@ -6383,7 +6374,7 @@
         <v>26.40003604</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>190.68</v>
       </c>
@@ -6412,7 +6403,7 @@
         <v>35.342539760000001</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>190.68</v>
       </c>
@@ -6441,7 +6432,7 @@
         <v>40.56876784</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>212.07</v>
       </c>
@@ -6470,7 +6461,7 @@
         <v>12.472620839999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>212.07</v>
       </c>
@@ -6499,7 +6490,7 @@
         <v>20.918701840000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>212.07</v>
       </c>
@@ -6528,7 +6519,7 @@
         <v>24.90387312</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>212.07</v>
       </c>
@@ -6557,7 +6548,7 @@
         <v>34.20490436</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>212.07</v>
       </c>
@@ -6586,7 +6577,7 @@
         <v>39.610396199999997</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>229.97</v>
       </c>
@@ -6615,7 +6606,7 @@
         <v>10.0318758</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>229.97</v>
       </c>
@@ -6644,7 +6635,7 @@
         <v>20.084435880000001</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>229.97</v>
       </c>
@@ -6673,7 +6664,7 @@
         <v>24.483292759999998</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>229.97</v>
       </c>
@@ -6702,7 +6693,7 @@
         <v>31.536632239999999</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>229.97</v>
       </c>
@@ -6731,7 +6722,7 @@
         <v>35.342539760000001</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>190.34</v>
       </c>
@@ -6760,7 +6751,7 @@
         <v>9.4458211999999993</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>190.34</v>
       </c>
@@ -6789,7 +6780,7 @@
         <v>22.718234199999998</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>190.34</v>
       </c>
@@ -6818,7 +6809,7 @@
         <v>28.468464040000001</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>190.34</v>
       </c>
@@ -6847,7 +6838,7 @@
         <v>38.562392680000002</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>190.34</v>
       </c>
@@ -6876,7 +6867,7 @@
         <v>40.389504080000002</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>166.09</v>
       </c>
@@ -6905,7 +6896,7 @@
         <v>10.762720359999999</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>166.09</v>
       </c>
@@ -6934,7 +6925,7 @@
         <v>25.483032959999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>166.09</v>
       </c>
@@ -6963,7 +6954,7 @@
         <v>21.539230239999998</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>166.09</v>
       </c>
@@ -6992,7 +6983,7 @@
         <v>28.627043520000001</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>166.09</v>
       </c>
@@ -7021,7 +7012,7 @@
         <v>33.5430074</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>167.95</v>
       </c>
@@ -7050,7 +7041,7 @@
         <v>7.7497102399999998</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>167.95</v>
       </c>
@@ -7079,7 +7070,7 @@
         <v>17.822954599999999</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>167.95</v>
       </c>
@@ -7108,7 +7099,7 @@
         <v>24.24197616</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>167.95</v>
       </c>
@@ -7137,7 +7128,7 @@
         <v>32.853531400000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>167.95</v>
       </c>
@@ -7166,7 +7157,7 @@
         <v>39.231184399999997</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>213.72</v>
       </c>
@@ -7195,7 +7186,7 @@
         <v>17.995323599999999</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>213.72</v>
       </c>
@@ -7224,7 +7215,7 @@
         <v>30.385207319999999</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>213.72</v>
       </c>
@@ -7253,7 +7244,7 @@
         <v>45.705364039999999</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>213.72</v>
       </c>
@@ -7282,7 +7273,7 @@
         <v>50.773012639999997</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>213.72</v>
       </c>
@@ -7311,7 +7302,7 @@
         <v>53.90323368</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>213.76</v>
       </c>
@@ -7340,7 +7331,7 @@
         <v>13.18278112</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>213.76</v>
       </c>
@@ -7369,7 +7360,7 @@
         <v>17.836744119999999</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>213.76</v>
       </c>
@@ -7398,7 +7389,7 @@
         <v>40.230924600000002</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>213.76</v>
       </c>
@@ -7427,7 +7418,7 @@
         <v>47.132579360000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>213.76</v>
       </c>
@@ -7456,7 +7447,7 @@
         <v>49.973220479999995</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>229.68</v>
       </c>
@@ -7485,7 +7476,7 @@
         <v>13.355150119999999</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>229.68</v>
       </c>
@@ -7514,7 +7505,7 @@
         <v>22.31833812</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>229.68</v>
       </c>
@@ -7543,7 +7534,7 @@
         <v>24.538450839999999</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>229.68</v>
       </c>
@@ -7572,7 +7563,7 @@
         <v>31.35047372</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>229.68</v>
       </c>
@@ -7601,7 +7592,7 @@
         <v>40.858347760000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>238.05</v>
       </c>
@@ -7630,7 +7621,7 @@
         <v>19.932751159999999</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>238.05</v>
       </c>
@@ -7659,7 +7650,7 @@
         <v>25.68987576</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>238.05</v>
       </c>
@@ -7688,7 +7679,7 @@
         <v>30.233522600000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>238.05</v>
       </c>
@@ -7717,7 +7708,7 @@
         <v>39.589711919999999</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>238.05</v>
       </c>
@@ -7746,7 +7737,7 @@
         <v>44.298833000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -7775,7 +7766,7 @@
         <v>13.817099039999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7804,7 +7795,7 @@
         <v>24.91766264</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>250</v>
       </c>
@@ -7833,7 +7824,7 @@
         <v>29.21999288</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>250</v>
       </c>
@@ -7862,7 +7853,7 @@
         <v>38.327970839999999</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>250</v>
       </c>
@@ -7891,7 +7882,7 @@
         <v>42.347615919999996</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>212.52</v>
       </c>
@@ -7920,7 +7911,7 @@
         <v>13.54130864</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>212.52</v>
       </c>
@@ -7949,7 +7940,7 @@
         <v>26.310404159999997</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>212.52</v>
       </c>
@@ -7978,7 +7969,7 @@
         <v>31.640053639999998</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>212.52</v>
       </c>
@@ -8007,7 +7998,7 @@
         <v>42.547563959999998</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>212.52</v>
       </c>
@@ -8036,7 +8027,7 @@
         <v>42.919880999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>212.57</v>
       </c>
@@ -8065,7 +8056,7 @@
         <v>13.33446584</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>212.57</v>
       </c>
@@ -8094,7 +8085,7 @@
         <v>25.372716799999999</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>212.57</v>
       </c>
@@ -8123,7 +8114,7 @@
         <v>37.404072999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>212.57</v>
       </c>
@@ -8152,7 +8143,7 @@
         <v>44.395359639999995</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>212.57</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>47.739318239999996</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>212</v>
       </c>
@@ -8210,7 +8201,7 @@
         <v>19.519065559999998</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>212</v>
       </c>
@@ -8239,7 +8230,7 @@
         <v>31.35047372</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>212</v>
       </c>
@@ -8268,7 +8259,7 @@
         <v>38.500339839999995</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>212</v>
       </c>
@@ -8297,7 +8288,7 @@
         <v>45.084835640000001</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>212</v>
       </c>
@@ -8326,7 +8317,7 @@
         <v>47.815160599999999</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>231.75</v>
       </c>
@@ -8355,7 +8346,7 @@
         <v>15.43736764</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>231.75</v>
       </c>
@@ -8384,7 +8375,7 @@
         <v>26.772353079999998</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>231.75</v>
       </c>
@@ -8413,7 +8404,7 @@
         <v>33.72916592</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>231.75</v>
       </c>
@@ -8442,7 +8433,7 @@
         <v>42.699248679999997</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>231.75</v>
       </c>
@@ -8471,7 +8462,7 @@
         <v>45.83636448</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>251.37</v>
       </c>
@@ -8500,7 +8491,7 @@
         <v>17.223110479999999</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>251.37</v>
       </c>
@@ -8529,7 +8520,7 @@
         <v>29.93015316</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>251.37</v>
       </c>
@@ -8558,7 +8549,7 @@
         <v>29.654362759999998</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>251.37</v>
       </c>
@@ -8587,7 +8578,7 @@
         <v>36.969703119999998</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>251.37</v>
       </c>
@@ -8616,7 +8607,7 @@
         <v>43.581777959999997</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>251.37</v>
       </c>
@@ -8645,7 +8636,7 @@
         <v>13.12072828</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>251.37</v>
       </c>
@@ -8674,7 +8665,7 @@
         <v>24.428134679999999</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>251.37</v>
       </c>
@@ -8703,7 +8694,7 @@
         <v>32.660478120000001</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>251.37</v>
       </c>
@@ -8732,7 +8723,7 @@
         <v>36.638754640000002</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>251.37</v>
       </c>
@@ -8761,7 +8752,7 @@
         <v>44.209201119999996</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>181.38</v>
       </c>
@@ -8790,7 +8781,7 @@
         <v>13.62404576</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>181.38</v>
       </c>
@@ -8819,7 +8810,7 @@
         <v>21.601283079999998</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>181.38</v>
       </c>
@@ -8848,7 +8839,7 @@
         <v>27.77209328</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>181.38</v>
       </c>
@@ -8877,7 +8868,7 @@
         <v>35.570066839999996</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>181.38</v>
       </c>
@@ -8906,7 +8897,7 @@
         <v>45.367520800000001</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>182.04</v>
       </c>
@@ -8935,7 +8926,7 @@
         <v>7.3153403599999995</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>182.04</v>
       </c>
@@ -8964,7 +8955,7 @@
         <v>21.504756439999998</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>182.04</v>
       </c>
@@ -8993,7 +8984,7 @@
         <v>31.267736599999999</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>182.04</v>
       </c>
@@ -9022,7 +9013,7 @@
         <v>43.499040839999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>182.04</v>
       </c>
@@ -9051,7 +9042,7 @@
         <v>48.67011084</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>168.88</v>
       </c>
@@ -9080,7 +9071,7 @@
         <v>7.3980774799999995</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>168.88</v>
       </c>
@@ -9109,7 +9100,7 @@
         <v>23.511131599999999</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>168.88</v>
       </c>
@@ -9138,7 +9129,7 @@
         <v>31.116051880000001</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>168.88</v>
       </c>
@@ -9167,7 +9158,7 @@
         <v>39.148447279999999</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>168.88</v>
       </c>
@@ -9196,7 +9187,7 @@
         <v>48.153003839999997</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>290.35000000000002</v>
       </c>
@@ -9225,7 +9216,7 @@
         <v>22.504496639999999</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>290.35000000000002</v>
       </c>
@@ -9254,7 +9245,7 @@
         <v>34.67374804</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>290.35000000000002</v>
       </c>
@@ -9283,7 +9274,7 @@
         <v>34.735800879999999</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>290.35000000000002</v>
       </c>
@@ -9312,7 +9303,7 @@
         <v>45.084835640000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>290.35000000000002</v>
       </c>
@@ -9341,7 +9332,7 @@
         <v>48.973480279999997</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>277.05</v>
       </c>
@@ -9370,7 +9361,7 @@
         <v>23.13881456</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>277.05</v>
       </c>
@@ -9399,7 +9390,7 @@
         <v>41.885666999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>277.05</v>
       </c>
@@ -9428,7 +9419,7 @@
         <v>48.284004279999998</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>277.05</v>
       </c>
@@ -9457,7 +9448,7 @@
         <v>51.03501352</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>277.05</v>
       </c>
@@ -9486,7 +9477,7 @@
         <v>55.6407132</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>295.70999999999998</v>
       </c>
@@ -9515,7 +9506,7 @@
         <v>22.945761279999999</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>295.70999999999998</v>
       </c>
@@ -9544,7 +9535,7 @@
         <v>35.232223599999998</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>295.70999999999998</v>
       </c>
@@ -9573,7 +9564,7 @@
         <v>39.94134468</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>295.70999999999998</v>
       </c>
@@ -9602,7 +9593,7 @@
         <v>48.718374159999996</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>295.70999999999998</v>
       </c>
@@ -9631,7 +9622,7 @@
         <v>52.041648479999999</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>251.81</v>
       </c>
@@ -9660,7 +9651,7 @@
         <v>21.022123239999999</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>251.81</v>
       </c>
@@ -9689,7 +9680,7 @@
         <v>33.356848880000001</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>251.81</v>
       </c>
@@ -9718,7 +9709,7 @@
         <v>33.942903479999998</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>251.81</v>
       </c>
@@ -9747,7 +9738,7 @@
         <v>44.140253520000002</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>251.81</v>
       </c>
@@ -9776,7 +9767,7 @@
         <v>45.367520800000001</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>249.1</v>
       </c>
@@ -9805,7 +9796,7 @@
         <v>15.361525279999999</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>249.1</v>
       </c>
@@ -9834,7 +9825,7 @@
         <v>28.682201599999999</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>249.1</v>
       </c>
@@ -9863,7 +9854,7 @@
         <v>30.84715624</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>249.1</v>
       </c>
@@ -9892,7 +9883,7 @@
         <v>42.030456959999995</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>249.1</v>
       </c>
@@ -9921,7 +9912,7 @@
         <v>51.055697799999997</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>252.31</v>
       </c>
@@ -9950,7 +9941,7 @@
         <v>21.78054684</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>252.31</v>
       </c>
@@ -9979,7 +9970,7 @@
         <v>42.292457839999997</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>252.31</v>
       </c>
@@ -10008,7 +9999,7 @@
         <v>50.600643640000001</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>252.31</v>
       </c>
@@ -10037,7 +10028,7 @@
         <v>55.82687172</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>252.31</v>
       </c>
@@ -10066,7 +10057,7 @@
         <v>60.949678399999996</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>246.83</v>
       </c>
@@ -10095,7 +10086,7 @@
         <v>23.524921119999998</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>246.83</v>
       </c>
@@ -10124,7 +10115,7 @@
         <v>42.216615480000002</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>246.83</v>
       </c>
@@ -10153,7 +10144,7 @@
         <v>52.503597399999997</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>246.83</v>
       </c>
@@ -10182,7 +10173,7 @@
         <v>60.322255239999997</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>246.83</v>
       </c>
@@ -10211,7 +10202,7 @@
         <v>66.424117839999994</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>275.07</v>
       </c>
@@ -10240,7 +10231,7 @@
         <v>23.80071152</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>275.07</v>
       </c>
@@ -10269,7 +10260,7 @@
         <v>38.769235479999999</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>275.07</v>
       </c>
@@ -10298,7 +10289,7 @@
         <v>51.331488199999995</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>275.07</v>
       </c>
@@ -10327,7 +10318,7 @@
         <v>56.847296199999995</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>275.07</v>
       </c>
@@ -10356,7 +10347,7 @@
         <v>58.605460000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>297.16000000000003</v>
       </c>
@@ -10385,7 +10376,7 @@
         <v>21.911547280000001</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>297.16000000000003</v>
       </c>
@@ -10414,7 +10405,7 @@
         <v>36.990387399999996</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>297.16000000000003</v>
       </c>
@@ -10443,7 +10434,7 @@
         <v>47.401474999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>297.16000000000003</v>
       </c>
@@ -10472,7 +10463,7 @@
         <v>51.958911360000002</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>297.16000000000003</v>
       </c>
@@ -10501,7 +10492,7 @@
         <v>56.7438748</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>213.74</v>
       </c>
@@ -10530,7 +10521,7 @@
         <v>17.57474324</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>213.74</v>
       </c>
@@ -10559,7 +10550,7 @@
         <v>33.72916592</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>213.74</v>
       </c>
@@ -10588,7 +10579,7 @@
         <v>40.148187479999997</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>213.74</v>
       </c>
@@ -10617,7 +10608,7 @@
         <v>46.643051399999997</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>213.74</v>
       </c>
@@ -10646,7 +10637,7 @@
         <v>50.076641879999997</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>213.5</v>
       </c>
@@ -10675,7 +10666,7 @@
         <v>17.36790044</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>213.5</v>
       </c>
@@ -10704,7 +10695,7 @@
         <v>33.701586880000001</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>213.5</v>
       </c>
@@ -10733,7 +10724,7 @@
         <v>45.939785879999995</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>213.5</v>
       </c>
@@ -10762,7 +10753,7 @@
         <v>51.434909599999997</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>213.5</v>
       </c>
@@ -10791,7 +10782,7 @@
         <v>59.301830760000001</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>277.19</v>
       </c>
@@ -10820,7 +10811,7 @@
         <v>30.447260159999999</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>277.19</v>
       </c>
@@ -10849,7 +10840,7 @@
         <v>47.711739199999997</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>277.19</v>
       </c>
@@ -10878,7 +10869,7 @@
         <v>63.14221208</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>277.19</v>
       </c>
@@ -10907,7 +10898,7 @@
         <v>66.824013919999999</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>277.19</v>
       </c>
@@ -10936,7 +10927,7 @@
         <v>66.948119599999998</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>218.23</v>
       </c>
@@ -10965,7 +10956,7 @@
         <v>27.420460519999999</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>218.23</v>
       </c>
@@ -10994,7 +10985,7 @@
         <v>35.956173399999997</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>218.23</v>
       </c>
@@ -11023,7 +11014,7 @@
         <v>55.509712759999999</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>218.23</v>
       </c>
@@ -11052,7 +11043,7 @@
         <v>61.990787159999996</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>218.23</v>
       </c>
@@ -11081,7 +11072,7 @@
         <v>63.528318639999995</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>214.9</v>
       </c>
@@ -11110,7 +11101,7 @@
         <v>18.01600788</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>214.9</v>
       </c>
@@ -11139,7 +11130,7 @@
         <v>38.603761239999997</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>214.9</v>
       </c>
@@ -11168,7 +11159,7 @@
         <v>52.200227959999999</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>214.9</v>
       </c>
@@ -11197,7 +11188,7 @@
         <v>53.958391759999998</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>214.9</v>
       </c>
@@ -11226,7 +11217,7 @@
         <v>56.633558639999997</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>218.85</v>
       </c>
@@ -11255,7 +11246,7 @@
         <v>15.340840999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>218.85</v>
       </c>
@@ -11284,7 +11275,7 @@
         <v>26.048403279999999</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>218.85</v>
       </c>
@@ -11313,7 +11304,7 @@
         <v>30.219733079999997</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>218.85</v>
       </c>
@@ -11342,7 +11333,7 @@
         <v>37.266177800000001</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>218.85</v>
       </c>
@@ -11371,7 +11362,7 @@
         <v>46.229365799999997</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -11400,7 +11391,7 @@
         <v>16.278528359999999</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11429,7 +11420,7 @@
         <v>25.620928159999998</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -11458,7 +11449,7 @@
         <v>31.971002119999998</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>376</v>
       </c>
@@ -11487,7 +11478,7 @@
         <v>36.300911399999997</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>376</v>
       </c>
@@ -11516,7 +11507,7 @@
         <v>43.057776199999999</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>500</v>
       </c>
@@ -11545,7 +11536,7 @@
         <v>67.568647999999996</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>475</v>
       </c>
@@ -11574,7 +11565,7 @@
         <v>57.226507999999995</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>315</v>
       </c>
@@ -11603,7 +11594,7 @@
         <v>81.751169320000002</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>505</v>
       </c>
@@ -11632,7 +11623,7 @@
         <v>64.017846599999999</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>451</v>
       </c>
@@ -11661,7 +11652,7 @@
         <v>78.800212039999991</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>516</v>
       </c>
@@ -11690,7 +11681,7 @@
         <v>41.368560000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>520</v>
       </c>
@@ -11719,7 +11710,7 @@
         <v>60.280886679999995</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>528</v>
       </c>
@@ -11748,7 +11739,7 @@
         <v>56.833506679999999</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>520</v>
       </c>
@@ -11777,7 +11768,7 @@
         <v>51.021223999999997</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>385</v>
       </c>
@@ -11806,7 +11797,7 @@
         <v>55.551081320000002</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>500.1</v>
       </c>
@@ -11835,7 +11826,7 @@
         <v>44.13335876</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>450.1</v>
       </c>
@@ -11864,7 +11855,7 @@
         <v>39.375974360000001</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>397</v>
       </c>
@@ -11893,7 +11884,7 @@
         <v>55.647607959999995</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>333</v>
       </c>
@@ -11922,7 +11913,7 @@
         <v>47.277369319999998</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>334</v>
       </c>
@@ -11951,7 +11942,7 @@
         <v>44.326412040000001</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>405</v>
       </c>
@@ -11980,7 +11971,7 @@
         <v>52.303649360000001</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>200</v>
       </c>
@@ -12009,7 +12000,7 @@
         <v>49.249270679999995</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>516</v>
       </c>
@@ -12038,7 +12029,7 @@
         <v>41.368560000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>145</v>
       </c>
@@ -12067,7 +12058,7 @@
         <v>29.15794004</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>160</v>
       </c>
@@ -12096,7 +12087,7 @@
         <v>39.396658639999998</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>234</v>
       </c>
@@ -12125,7 +12116,7 @@
         <v>39.300131999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>250</v>
       </c>
@@ -12154,7 +12145,7 @@
         <v>67.865122679999999</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>475</v>
       </c>
@@ -12183,7 +12174,7 @@
         <v>58.522722879999996</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>285</v>
       </c>
@@ -12212,7 +12203,7 @@
         <v>53.579179959999998</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>356</v>
       </c>
@@ -12241,7 +12232,7 @@
         <v>58.998461319999997</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>275</v>
       </c>
@@ -12270,7 +12261,7 @@
         <v>76.235361319999996</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>500</v>
       </c>
@@ -12299,7 +12290,7 @@
         <v>69.837024040000003</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>165</v>
       </c>
@@ -12328,7 +12319,7 @@
         <v>14.39625888</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>165</v>
       </c>
@@ -12357,7 +12348,7 @@
         <v>19.415644159999999</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>178.03</v>
       </c>
@@ -12386,7 +12377,7 @@
         <v>20.72564856</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>167.35</v>
       </c>
@@ -12415,7 +12406,7 @@
         <v>14.94094492</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>172.38</v>
       </c>
@@ -12444,7 +12435,7 @@
         <v>21.291018879999999</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>173.54</v>
       </c>
@@ -12473,7 +12464,7 @@
         <v>23.07676172</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>167</v>
       </c>
@@ -12502,7 +12493,7 @@
         <v>15.520104759999999</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>173.81</v>
       </c>
@@ -12531,7 +12522,7 @@
         <v>15.81657944</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>190.34</v>
       </c>
@@ -12560,7 +12551,7 @@
         <v>12.5484632</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>250</v>
       </c>
@@ -12589,7 +12580,7 @@
         <v>8.4874495599999999</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>213.5</v>
       </c>
@@ -12618,7 +12609,7 @@
         <v>15.609736639999999</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>194.68</v>
       </c>
@@ -12647,7 +12638,7 @@
         <v>12.17614616</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>251.37</v>
       </c>
@@ -12676,7 +12667,7 @@
         <v>11.983092879999999</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>165</v>
       </c>
@@ -12705,7 +12696,7 @@
         <v>16.878372479999999</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>165</v>
       </c>
@@ -12734,7 +12725,7 @@
         <v>33.087953239999997</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>178.03</v>
       </c>
@@ -12763,7 +12754,7 @@
         <v>34.239378160000001</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>167.35</v>
       </c>
@@ -12792,7 +12783,7 @@
         <v>31.812422639999998</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>172.38</v>
       </c>
@@ -12821,7 +12812,7 @@
         <v>29.750889399999998</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>173.54</v>
       </c>
@@ -12850,7 +12841,7 @@
         <v>33.00521612</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>167</v>
       </c>
@@ -12879,7 +12870,7 @@
         <v>32.901794719999998</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>173.81</v>
       </c>
@@ -12908,7 +12899,7 @@
         <v>29.550941359999999</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>190.34</v>
       </c>
@@ -12937,7 +12928,7 @@
         <v>19.415644159999999</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>250</v>
       </c>
@@ -12966,7 +12957,7 @@
         <v>24.655661760000001</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>213.5</v>
       </c>
@@ -12995,7 +12986,7 @@
         <v>29.592309919999998</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>194.68</v>
       </c>
@@ -13024,7 +13015,7 @@
         <v>24.283344719999999</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>251.37</v>
       </c>
@@ -13053,7 +13044,7 @@
         <v>20.72564856</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>165</v>
       </c>
@@ -13082,7 +13073,7 @@
         <v>26.200088000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>165</v>
       </c>
@@ -13111,7 +13102,7 @@
         <v>46.387945279999997</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>178.03</v>
       </c>
@@ -13140,7 +13131,7 @@
         <v>39.162236800000002</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>167.35</v>
       </c>
@@ -13169,7 +13160,7 @@
         <v>41.20308576</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>172.38</v>
       </c>
@@ -13198,7 +13189,7 @@
         <v>33.687797359999998</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>173.54</v>
       </c>
@@ -13227,7 +13218,7 @@
         <v>38.203865159999999</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>167</v>
       </c>
@@ -13256,7 +13247,7 @@
         <v>41.409928559999997</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>173.81</v>
       </c>
@@ -13285,7 +13276,7 @@
         <v>37.810863839999996</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>190.34</v>
       </c>
@@ -13314,7 +13305,7 @@
         <v>24.848715039999998</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>250</v>
       </c>
@@ -13343,7 +13334,7 @@
         <v>27.22051248</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>213.5</v>
       </c>
@@ -13372,7 +13363,7 @@
         <v>44.63667624</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>194.68</v>
       </c>
@@ -13401,7 +13392,7 @@
         <v>37.266177800000001</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>251.37</v>
       </c>
@@ -13430,7 +13421,7 @@
         <v>33.274111759999997</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>165</v>
       </c>
@@ -13459,7 +13450,7 @@
         <v>36.562912279999999</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>165</v>
       </c>
@@ -13488,7 +13479,7 @@
         <v>53.723969920000002</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>178.03</v>
       </c>
@@ -13517,7 +13508,7 @@
         <v>48.587373719999995</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>167.35</v>
       </c>
@@ -13546,7 +13537,7 @@
         <v>51.724489519999999</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>172.38</v>
       </c>
@@ -13575,7 +13566,7 @@
         <v>35.852751999999995</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>173.54</v>
       </c>
@@ -13604,7 +13595,7 @@
         <v>53.772233239999998</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>167</v>
       </c>
@@ -13633,7 +13624,7 @@
         <v>53.46196904</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>173.81</v>
       </c>
@@ -13662,7 +13653,7 @@
         <v>48.9872698</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>190.34</v>
       </c>
@@ -13691,7 +13682,7 @@
         <v>31.715896000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>250</v>
       </c>
@@ -13720,7 +13711,7 @@
         <v>39.644869999999997</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>213.5</v>
       </c>
@@ -13749,7 +13740,7 @@
         <v>51.25564584</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>194.68</v>
       </c>
@@ -13778,7 +13769,7 @@
         <v>43.388724679999996</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>251.37</v>
       </c>
@@ -13807,7 +13798,7 @@
         <v>39.265658199999997</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>165</v>
       </c>
@@ -13836,7 +13827,7 @@
         <v>37.9556538</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>165</v>
       </c>
@@ -13865,7 +13856,7 @@
         <v>55.020184799999996</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>178.03</v>
       </c>
@@ -13894,7 +13885,7 @@
         <v>49.993904759999999</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>167.35</v>
       </c>
@@ -13923,7 +13914,7 @@
         <v>53.65502232</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>172.38</v>
       </c>
@@ -13952,7 +13943,7 @@
         <v>37.679863400000002</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>173.54</v>
       </c>
@@ -13981,7 +13972,7 @@
         <v>56.061293559999996</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>167</v>
       </c>
@@ -14010,7 +14001,7 @@
         <v>56.812822400000002</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>173.81</v>
       </c>
@@ -14039,7 +14030,7 @@
         <v>50.938486879999999</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>190.34</v>
       </c>
@@ -14068,7 +14059,7 @@
         <v>33.563691679999998</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>250</v>
       </c>
@@ -14097,7 +14088,7 @@
         <v>41.161717199999998</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>213.5</v>
       </c>
@@ -14126,7 +14117,7 @@
         <v>52.95865156</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>194.68</v>
       </c>
@@ -14155,7 +14146,7 @@
         <v>44.278148719999997</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>251.37</v>
       </c>
@@ -14184,7 +14175,7 @@
         <v>40.148187479999997</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>446</v>
       </c>
@@ -14213,7 +14204,7 @@
         <v>57.02655996</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>446</v>
       </c>
@@ -14242,7 +14233,7 @@
         <v>44.422938680000001</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>446</v>
       </c>
@@ -14271,7 +14262,7 @@
         <v>51.021223999999997</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>446</v>
       </c>
@@ -14300,7 +14291,7 @@
         <v>53.386126679999997</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>446</v>
       </c>
@@ -14329,7 +14320,7 @@
         <v>35.363224039999999</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>446</v>
       </c>
@@ -14358,7 +14349,7 @@
         <v>25.021084039999998</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>446</v>
       </c>
@@ -14387,7 +14378,7 @@
         <v>23.345657360000001</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>446</v>
       </c>
@@ -14416,7 +14407,7 @@
         <v>52.007174679999999</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>446</v>
       </c>
@@ -14445,7 +14436,7 @@
         <v>38.01770664</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>446</v>
       </c>
@@ -14474,7 +14465,7 @@
         <v>39.300131999999998</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>446</v>
       </c>
@@ -14503,7 +14494,7 @@
         <v>61.066889320000001</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>446</v>
       </c>
@@ -14532,7 +14523,7 @@
         <v>56.14403068</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>446</v>
       </c>
@@ -14561,7 +14552,7 @@
         <v>55.254606639999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>446</v>
       </c>
@@ -14590,7 +14581,7 @@
         <v>54.765078679999995</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>387</v>
       </c>
@@ -14619,7 +14610,7 @@
         <v>50.235221359999997</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>387</v>
       </c>
@@ -14648,7 +14639,7 @@
         <v>46.68441996</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>387</v>
       </c>
@@ -14677,7 +14668,7 @@
         <v>46.68441996</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>387</v>
       </c>
@@ -14706,7 +14697,7 @@
         <v>22.752707999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>387</v>
       </c>
@@ -14735,7 +14726,7 @@
         <v>25.510611999999998</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>387</v>
       </c>
@@ -14764,7 +14755,7 @@
         <v>34.77027468</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>387</v>
       </c>
@@ -14793,7 +14784,7 @@
         <v>36.838702679999997</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>387</v>
       </c>
@@ -14822,7 +14813,7 @@
         <v>45.89841732</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>387</v>
       </c>
@@ -14851,7 +14842,7 @@
         <v>41.665034679999998</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>387</v>
       </c>
@@ -14880,7 +14871,7 @@
         <v>56.337083960000001</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>387</v>
       </c>
@@ -14909,7 +14900,7 @@
         <v>47.966845319999997</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>387</v>
       </c>
@@ -14938,7 +14929,7 @@
         <v>61.459890639999998</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>355</v>
       </c>
@@ -14967,7 +14958,7 @@
         <v>44.029937359999998</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>355</v>
       </c>
@@ -14996,7 +14987,7 @@
         <v>55.454554680000001</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>491</v>
       </c>
@@ -15025,7 +15016,7 @@
         <v>55.551081320000002</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>491</v>
       </c>
@@ -15054,7 +15045,7 @@
         <v>57.915983999999995</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>491</v>
       </c>
@@ -15083,7 +15074,7 @@
         <v>25.609108569458641</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>491</v>
       </c>
@@ -15112,7 +15103,7 @@
         <v>33.488834284729315</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>491</v>
       </c>
@@ -15141,7 +15132,7 @@
         <v>59.590425715270676</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>491</v>
       </c>
@@ -15170,7 +15161,7 @@
         <v>29.548971430541361</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>491</v>
       </c>
@@ -15199,7 +15190,7 @@
         <v>37.92118</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>491</v>
       </c>
@@ -15228,7 +15219,7 @@
         <v>61.855846854187959</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>424</v>
       </c>
@@ -15257,7 +15248,7 @@
         <v>62.052839999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>424</v>
       </c>
@@ -15286,7 +15277,7 @@
         <v>32.011385715270677</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>424</v>
       </c>
@@ -15315,7 +15306,7 @@
         <v>72.098505320000001</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>424</v>
       </c>
@@ -15344,7 +15335,7 @@
         <v>39.004642284729314</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>424</v>
       </c>
@@ -15373,7 +15364,7 @@
         <v>65.697213145812029</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>424</v>
       </c>
@@ -15402,7 +15393,7 @@
         <v>32.109882284729316</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>424</v>
       </c>
@@ -15431,7 +15422,7 @@
         <v>40.28509771527068</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>424</v>
       </c>
@@ -15460,7 +15451,7 @@
         <v>74.364911458120403</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>202</v>
       </c>
@@ -15489,7 +15480,7 @@
         <v>21.966705359999999</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>202</v>
       </c>
@@ -15518,7 +15509,7 @@
         <v>9.8496571458120403</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>202</v>
       </c>
@@ -15547,7 +15538,7 @@
         <v>15.069975430541358</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>202</v>
       </c>
@@ -15576,7 +15567,7 @@
         <v>23.24519085418796</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>284</v>
       </c>
@@ -15605,7 +15596,7 @@
         <v>43.733462679999995</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>284</v>
       </c>
@@ -15634,7 +15625,7 @@
         <v>13.395533715270679</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>284</v>
       </c>
@@ -15663,7 +15654,7 @@
         <v>24.13166</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>284</v>
       </c>
@@ -15692,7 +15683,7 @@
         <v>44.520450284729314</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>359</v>
       </c>
@@ -15721,7 +15712,7 @@
         <v>62.935369279999996</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>359</v>
       </c>
@@ -15750,7 +15741,7 @@
         <v>59.494884039999995</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>359</v>
       </c>
@@ -15779,7 +15770,7 @@
         <v>25.116625715270679</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>359</v>
       </c>
@@ -15808,7 +15799,7 @@
         <v>23.639177145812038</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>359</v>
       </c>
@@ -15837,7 +15828,7 @@
         <v>35.754255430541363</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>359</v>
       </c>
@@ -15866,7 +15857,7 @@
         <v>38.610655999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>359</v>
       </c>
@@ -15895,7 +15886,7 @@
         <v>68.750606854187964</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>359</v>
       </c>
@@ -15924,7 +15915,7 @@
         <v>66.780675430541365</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>436</v>
       </c>
@@ -15953,7 +15944,7 @@
         <v>23.84897484</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>289</v>
       </c>
@@ -15982,7 +15973,7 @@
         <v>32.068218236</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>289</v>
       </c>
@@ -16011,7 +16002,7 @@
         <v>11.654902304</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>393</v>
       </c>
@@ -16040,7 +16031,7 @@
         <v>19.199148695999998</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>393</v>
       </c>
@@ -16069,7 +16060,7 @@
         <v>48.846616695999998</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>393</v>
       </c>
@@ -16098,7 +16089,7 @@
         <v>39.604880391999998</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>480</v>
       </c>
@@ -16127,7 +16118,7 @@
         <v>43.942373908</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>480</v>
       </c>
@@ -16156,7 +16147,7 @@
         <v>34.569637164</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>480</v>
       </c>
@@ -16185,7 +16176,7 @@
         <v>54.315540327999997</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>480</v>
       </c>
@@ -16214,7 +16205,7 @@
         <v>24.404692495999999</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>333</v>
       </c>
@@ -16243,7 +16234,7 @@
         <v>15.615941923999999</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>255</v>
       </c>
@@ -16272,7 +16263,7 @@
         <v>21.859147104000002</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>255</v>
       </c>
@@ -16301,7 +16292,7 @@
         <v>10.222171176</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>289</v>
       </c>
@@ -16330,7 +16321,7 @@
         <v>14.596896395999998</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>255</v>
       </c>
@@ -16359,7 +16350,7 @@
         <v>18.746162964</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>333</v>
       </c>
@@ -16388,7 +16379,7 @@
         <v>31.966865263999996</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>333</v>
       </c>
@@ -16417,7 +16408,7 @@
         <v>23.404952295999998</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>289</v>
       </c>
@@ -16446,7 +16437,7 @@
         <v>25.573354316</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>333</v>
       </c>
@@ -16475,7 +16466,7 @@
         <v>41.680203151999997</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>393</v>
       </c>
@@ -16504,7 +16495,7 @@
         <v>27.742445811999996</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>255</v>
       </c>
@@ -16533,7 +16524,7 @@
         <v>8.2040749240000004</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>158.80000000000001</v>
       </c>
@@ -16562,7 +16553,7 @@
         <v>9.617500724000001</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>239.6</v>
       </c>
@@ -16591,7 +16582,7 @@
         <v>25.422359071999999</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>238.2</v>
       </c>
@@ -16620,7 +16611,7 @@
         <v>15.691094808000001</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>181.9</v>
       </c>
@@ -16649,7 +16640,7 @@
         <v>27.935499091999997</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>193.5</v>
       </c>
@@ -16678,7 +16669,7 @@
         <v>32.626693796000005</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>255.5</v>
       </c>
@@ -16707,7 +16698,7 @@
         <v>17.236210524000001</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>272.8</v>
       </c>
@@ -16736,7 +16727,7 @@
         <v>19.765208491999999</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>239.6</v>
       </c>
@@ -16765,7 +16756,7 @@
         <v>39.435269296000001</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>220.8</v>
       </c>
@@ -16794,7 +16785,7 @@
         <v>25.745033839999998</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>397</v>
       </c>
@@ -16823,7 +16814,7 @@
         <v>33.082437431999999</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>382.5</v>
       </c>
@@ -16852,7 +16843,7 @@
         <v>24.065470304000002</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>210.7</v>
       </c>
@@ -16881,7 +16872,7 @@
         <v>21.819846971999997</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>158.80000000000001</v>
       </c>
@@ -16910,7 +16901,7 @@
         <v>21.066249704000001</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>295.8</v>
       </c>
@@ -16939,7 +16930,7 @@
         <v>14.843728803999999</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>255.5</v>
       </c>
@@ -16968,7 +16959,7 @@
         <v>32.051670811999998</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>203.5</v>
       </c>
@@ -16997,7 +16988,7 @@
         <v>11.957582267999999</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>397</v>
       </c>
@@ -17026,7 +17017,7 @@
         <v>25.447869684</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>381.4</v>
       </c>
@@ -17055,7 +17046,7 @@
         <v>22.489328168</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>295.8</v>
       </c>
@@ -17084,7 +17075,7 @@
         <v>25.216895223999998</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>228</v>
       </c>
@@ -17113,7 +17104,7 @@
         <v>39.699338603999998</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>220.8</v>
       </c>
@@ -17142,7 +17133,7 @@
         <v>13.089012384</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>316.10000000000002</v>
       </c>
@@ -17171,7 +17162,7 @@
         <v>38.700287879999998</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>135.69999999999999</v>
       </c>
@@ -17200,7 +17191,7 @@
         <v>7.507014687999999</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>238.1</v>
       </c>
@@ -17229,7 +17220,7 @@
         <v>17.576122192</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>339.2</v>
       </c>
@@ -17258,7 +17249,7 @@
         <v>21.179323768</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>135.69999999999999</v>
       </c>
@@ -17287,7 +17278,7 @@
         <v>18.198719019999999</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>193.5</v>
       </c>
@@ -17316,7 +17307,7 @@
         <v>17.200357771999997</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>203.5</v>
       </c>
@@ -17345,7 +17336,7 @@
         <v>22.629981271999998</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>290.2</v>
       </c>
@@ -17374,7 +17365,7 @@
         <v>21.859147104000002</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>181.9</v>
       </c>
@@ -17403,7 +17394,7 @@
         <v>12.37264682</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>170.3</v>
       </c>
@@ -17432,7 +17423,7 @@
         <v>25.726417988000001</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>210.7</v>
       </c>
@@ -17461,7 +17452,7 @@
         <v>37.813621743999995</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>228</v>
       </c>
@@ -17490,7 +17481,7 @@
         <v>21.917063087999999</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>290.2</v>
       </c>
@@ -17519,7 +17510,7 @@
         <v>33.043137299999998</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>381.4</v>
       </c>
@@ -17548,7 +17539,7 @@
         <v>14.54104884</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>238.2</v>
       </c>
@@ -17577,7 +17568,7 @@
         <v>26.913695659999998</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>186.2</v>
       </c>
@@ -17606,7 +17597,7 @@
         <v>7.9958531720000003</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>339.2</v>
       </c>
@@ -17635,7 +17626,7 @@
         <v>31.899986091999999</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>238.1</v>
       </c>
@@ -17664,7 +17655,7 @@
         <v>10.335934715999999</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>252.5</v>
       </c>
@@ -17693,7 +17684,7 @@
         <v>19.765208491999999</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>382.5</v>
       </c>
@@ -17722,7 +17713,7 @@
         <v>37.437857323999999</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>252.5</v>
       </c>
@@ -17751,7 +17742,7 @@
         <v>11.483912255999998</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>316.10000000000002</v>
       </c>
@@ -17780,7 +17771,7 @@
         <v>24.437787344</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>186.2</v>
       </c>
@@ -17809,7 +17800,7 @@
         <v>17.596806471999997</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>170.3</v>
       </c>
@@ -17838,7 +17829,7 @@
         <v>10.730314988</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>272.8</v>
       </c>
@@ -17867,7 +17858,7 @@
         <v>31.38150014</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>339</v>
       </c>
@@ -17896,7 +17887,7 @@
         <v>13.22414968</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>339</v>
       </c>
@@ -17925,7 +17916,7 @@
         <v>20.966965160000001</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>339</v>
       </c>
@@ -17954,7 +17945,7 @@
         <v>27.041248719999999</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>339</v>
       </c>
@@ -17983,7 +17974,7 @@
         <v>32.039949719999996</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>339</v>
       </c>
@@ -18012,7 +18003,7 @@
         <v>35.170170759999998</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>339</v>
       </c>
@@ -18041,7 +18032,7 @@
         <v>36.445701360000001</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>339</v>
       </c>
@@ -18070,7 +18061,7 @@
         <v>38.893341159999999</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>236</v>
       </c>
@@ -18099,7 +18090,7 @@
         <v>6.4672848799999993</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>236</v>
       </c>
@@ -18128,7 +18119,7 @@
         <v>12.83804312</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>236</v>
       </c>
@@ -18157,7 +18148,7 @@
         <v>18.415903959999998</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>236</v>
       </c>
@@ -18186,7 +18177,7 @@
         <v>21.946021079999998</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>236</v>
       </c>
@@ -18215,7 +18206,7 @@
         <v>24.104080959999997</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>236</v>
       </c>
@@ -18244,7 +18235,7 @@
         <v>25.083136879999998</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>277</v>
       </c>
@@ -18273,7 +18264,7 @@
         <v>21.26343984</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>277</v>
       </c>
@@ -18302,7 +18293,7 @@
         <v>25.965666159999998</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>277</v>
       </c>
@@ -18331,7 +18322,7 @@
         <v>11.36256448</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>277</v>
       </c>
@@ -18360,7 +18351,7 @@
         <v>31.25394708</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>277</v>
       </c>
@@ -18389,7 +18380,7 @@
         <v>32.329529639999997</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>277</v>
       </c>
@@ -18418,7 +18409,7 @@
         <v>33.701586880000001</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>254</v>
       </c>
@@ -18447,7 +18438,7 @@
         <v>9.3079260000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>254</v>
       </c>
@@ -18476,7 +18467,7 @@
         <v>26.944722079999998</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>254</v>
       </c>
@@ -18505,7 +18496,7 @@
         <v>27.627303319999999</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>254</v>
       </c>
@@ -18534,7 +18525,7 @@
         <v>29.785363199999999</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>307</v>
       </c>
@@ -18563,7 +18554,7 @@
         <v>34.48758952</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>307</v>
       </c>
@@ -18592,7 +18583,7 @@
         <v>36.149226679999998</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>307</v>
       </c>
@@ -18621,7 +18612,7 @@
         <v>12.541568439999999</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>307</v>
       </c>
@@ -18650,7 +18641,7 @@
         <v>27.530776679999999</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>307</v>
       </c>
@@ -18679,7 +18670,7 @@
         <v>32.922478999999996</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>236</v>
       </c>
@@ -18708,7 +18699,7 @@
         <v>9.9905072399999995</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>200</v>
       </c>
@@ -18737,7 +18728,7 @@
         <v>7.8393421199999995</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>200</v>
       </c>
@@ -18766,7 +18757,7 @@
         <v>12.24509376</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>225</v>
       </c>
@@ -18795,7 +18786,7 @@
         <v>11.169511199999999</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>225</v>
       </c>
@@ -18824,7 +18815,7 @@
         <v>17.340321400000001</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>325</v>
       </c>
@@ -18853,7 +18844,7 @@
         <v>17.540269439999999</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>325</v>
       </c>
@@ -18882,7 +18873,7 @@
         <v>30.571365839999999</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>275</v>
       </c>
@@ -18911,7 +18902,7 @@
         <v>14.2032056</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>275</v>
       </c>
@@ -18940,7 +18931,7 @@
         <v>24.497082280000001</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>300</v>
       </c>
@@ -18969,7 +18960,7 @@
         <v>15.575262839999999</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>300</v>
       </c>
@@ -18998,7 +18989,7 @@
         <v>26.848195439999998</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>375</v>
       </c>
@@ -19027,7 +19018,7 @@
         <v>26.062192799999998</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>375</v>
       </c>
@@ -19056,7 +19047,7 @@
         <v>38.210759920000001</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>400</v>
       </c>
@@ -19085,7 +19076,7 @@
         <v>43.698988880000002</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>400</v>
       </c>
@@ -19114,7 +19105,7 @@
         <v>30.143890719999998</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>250</v>
       </c>
@@ -19143,7 +19134,7 @@
         <v>12.73462172</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>250</v>
       </c>
@@ -19172,7 +19163,7 @@
         <v>20.87043852</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>350</v>
       </c>
@@ -19201,7 +19192,7 @@
         <v>20.277489159999998</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>350</v>
       </c>
@@ -19230,7 +19221,7 @@
         <v>34.294536239999999</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>203.5</v>
       </c>
@@ -19259,7 +19250,7 @@
         <v>19.539060364000001</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>250.2</v>
       </c>
@@ -19288,7 +19279,7 @@
         <v>47.714497103999996</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>157</v>
       </c>
@@ -19317,7 +19308,7 @@
         <v>43.377003588000001</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>141.30000000000001</v>
       </c>
@@ -19346,7 +19337,7 @@
         <v>29.892231979999998</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>166.8</v>
       </c>
@@ -19375,7 +19366,7 @@
         <v>6.9023442360000002</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>122.6</v>
       </c>
@@ -19404,7 +19395,7 @@
         <v>33.192064116000005</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>183.9</v>
       </c>
@@ -19433,7 +19424,7 @@
         <v>4.9035533120000006</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>102</v>
       </c>
@@ -19462,7 +19453,7 @@
         <v>4.5650205960000001</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>102</v>
       </c>
@@ -19491,7 +19482,7 @@
         <v>25.460969728000002</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>122.6</v>
       </c>
@@ -19520,7 +19511,7 @@
         <v>24.290928955999998</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>166.8</v>
       </c>
@@ -19549,7 +19540,7 @@
         <v>33.947729811999999</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>200</v>
       </c>
@@ -19578,7 +19569,7 @@
         <v>11.414275179999999</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>108.3</v>
       </c>
@@ -19607,7 +19598,7 @@
         <v>20.593958644000001</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>305.3</v>
       </c>
@@ -19636,7 +19627,7 @@
         <v>25.893960655999997</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>108.3</v>
       </c>
@@ -19665,7 +19656,7 @@
         <v>29.231713971999998</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>116</v>
       </c>
@@ -19694,7 +19685,7 @@
         <v>31.023662096000002</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>141.30000000000001</v>
       </c>
@@ -19723,7 +19714,7 @@
         <v>10.3938507</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>157</v>
       </c>
@@ -19752,7 +19743,7 @@
         <v>33.664355176000001</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>133</v>
       </c>
@@ -19781,7 +19772,7 @@
         <v>27.874825204</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>250.2</v>
       </c>
@@ -19810,7 +19801,7 @@
         <v>19.350143939999999</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>173</v>
       </c>
@@ -19839,7 +19830,7 @@
         <v>11.392211948</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>192</v>
       </c>
@@ -19868,7 +19859,7 @@
         <v>12.788400847999998</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>192</v>
       </c>
@@ -19897,7 +19888,7 @@
         <v>39.321505756000001</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>153</v>
       </c>
@@ -19926,7 +19917,7 @@
         <v>4.7822055360000002</v>
       </c>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>288</v>
       </c>
@@ -19955,7 +19946,7 @@
         <v>16.10960674</v>
       </c>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>305.3</v>
       </c>
@@ -19984,7 +19975,7 @@
         <v>43.377003588000001</v>
       </c>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>236</v>
       </c>
@@ -20013,7 +20004,7 @@
         <v>20.416073835999999</v>
       </c>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>173</v>
       </c>
@@ -20042,7 +20033,7 @@
         <v>6.9409548919999997</v>
       </c>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>212</v>
       </c>
@@ -20071,7 +20062,7 @@
         <v>15.030576799999999</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>236</v>
       </c>
@@ -20100,7 +20091,7 @@
         <v>13.565440299999999</v>
       </c>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>183.9</v>
       </c>
@@ -20129,7 +20120,7 @@
         <v>32.532925059999997</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>166.8</v>
       </c>
@@ -20158,7 +20149,7 @@
         <v>15.748321315999998</v>
       </c>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>102</v>
       </c>
@@ -20187,7 +20178,7 @@
         <v>7.6759363079999998</v>
       </c>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>288</v>
       </c>
@@ -20216,7 +20207,7 @@
         <v>38.804398756000005</v>
       </c>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>212</v>
       </c>
@@ -20245,7 +20236,7 @@
         <v>33.003837167999997</v>
       </c>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>102</v>
       </c>
@@ -20274,7 +20265,7 @@
         <v>17.275510655999998</v>
       </c>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>173</v>
       </c>
@@ -20303,7 +20294,7 @@
         <v>24.281965767999999</v>
       </c>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>183.9</v>
       </c>
@@ -20332,7 +20323,7 @@
         <v>24.046164976</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>133</v>
       </c>
@@ -20361,7 +20352,7 @@
         <v>36.588422891999997</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>192</v>
       </c>
@@ -20390,7 +20381,7 @@
         <v>50.732333556</v>
       </c>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>133</v>
       </c>
@@ -20419,7 +20410,7 @@
         <v>13.664035367999999</v>
       </c>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>305.3</v>
       </c>
@@ -20448,7 +20439,7 @@
         <v>14.143910664</v>
       </c>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>236</v>
       </c>
@@ -20477,7 +20468,7 @@
         <v>47.782065751999994</v>
       </c>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>108.3</v>
       </c>
@@ -20506,7 +20497,7 @@
         <v>2.331807832</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>157</v>
       </c>
@@ -20535,7 +20526,7 @@
         <v>16.889404096</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>288</v>
       </c>
@@ -20564,7 +20555,7 @@
         <v>23.523542167999999</v>
       </c>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>212</v>
       </c>
@@ -20593,7 +20584,7 @@
         <v>6.8085754999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>212</v>
       </c>
@@ -20622,7 +20613,7 @@
         <v>39.700028079999996</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>153</v>
       </c>
@@ -20651,7 +20642,7 @@
         <v>17.964297179999999</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>236</v>
       </c>
@@ -20680,7 +20671,7 @@
         <v>32.884557819999998</v>
       </c>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>116</v>
       </c>
@@ -20709,7 +20700,7 @@
         <v>22.347985588</v>
       </c>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>183.9</v>
       </c>
@@ -20738,7 +20729,7 @@
         <v>10.787541495999999</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>108.3</v>
       </c>
@@ -20767,7 +20758,7 @@
         <v>7.7235101520000002</v>
       </c>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>203.5</v>
       </c>
@@ -20796,7 +20787,7 @@
         <v>41.684340008</v>
       </c>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>203.5</v>
       </c>
@@ -20825,7 +20816,7 @@
         <v>9.5616531679999994</v>
       </c>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>133</v>
       </c>
@@ -20854,7 +20845,7 @@
         <v>6.8837283839999994</v>
       </c>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>288</v>
       </c>
@@ -20883,7 +20874,7 @@
         <v>50.526869708</v>
       </c>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>200</v>
       </c>
@@ -20912,7 +20903,7 @@
         <v>17.165883972</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>200</v>
       </c>
@@ -20941,7 +20932,7 @@
         <v>30.439675923999996</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>250.2</v>
       </c>
@@ -20970,7 +20961,7 @@
         <v>9.731264264</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>122.6</v>
       </c>
@@ -20999,7 +20990,7 @@
         <v>3.31982694</v>
       </c>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>153</v>
       </c>
@@ -21028,7 +21019,7 @@
         <v>26.322814728000001</v>
       </c>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>200</v>
       </c>
@@ -21057,7 +21048,7 @@
         <v>43.25082948</v>
       </c>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>116</v>
       </c>
@@ -21086,7 +21077,7 @@
         <v>6.2804368839999993</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>173</v>
       </c>
@@ -21115,7 +21106,7 @@
         <v>32.102692036000001</v>
       </c>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>250.2</v>
       </c>
@@ -21144,7 +21135,7 @@
         <v>36.964187312</v>
       </c>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>305.3</v>
       </c>
@@ -21173,7 +21164,7 @@
         <v>54.598914963999995</v>
       </c>
     </row>
-    <row r="714" spans="1:9">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>192</v>
       </c>
@@ -21202,7 +21193,7 @@
         <v>21.480624779999999</v>
       </c>
     </row>
-    <row r="715" spans="1:9">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>157</v>
       </c>
@@ -21231,7 +21222,7 @@
         <v>9.6947220359999999</v>
       </c>
     </row>
-    <row r="716" spans="1:9">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>153</v>
       </c>
@@ -21260,7 +21251,7 @@
         <v>8.374375495999999</v>
       </c>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>141.30000000000001</v>
       </c>
@@ -21289,7 +21280,7 @@
         <v>39.662106899999998</v>
       </c>
     </row>
-    <row r="718" spans="1:9">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>116</v>
       </c>
@@ -21318,7 +21309,7 @@
         <v>10.089791784000001</v>
       </c>
     </row>
-    <row r="719" spans="1:9">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>141.30000000000001</v>
       </c>
@@ -21347,7 +21338,7 @@
         <v>4.8277109520000003</v>
       </c>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>122.6</v>
       </c>
@@ -21376,7 +21367,7 @@
         <v>10.354550567999999</v>
       </c>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>166.8</v>
       </c>
@@ -21405,7 +21396,7 @@
         <v>43.565230536000001</v>
       </c>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>203.5</v>
       </c>
@@ -21434,7 +21425,7 @@
         <v>51.863763671999997</v>
       </c>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>310</v>
       </c>
@@ -21463,7 +21454,7 @@
         <v>11.85209244</v>
       </c>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>310</v>
       </c>
@@ -21492,7 +21483,7 @@
         <v>17.24379476</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>310</v>
       </c>
@@ -21521,7 +21512,7 @@
         <v>27.827251359999998</v>
       </c>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>310</v>
       </c>
@@ -21550,7 +21541,7 @@
         <v>35.763120119999996</v>
       </c>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>310</v>
       </c>
@@ -21579,7 +21570,7 @@
         <v>38.700287879999998</v>
       </c>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>331</v>
       </c>
@@ -21608,7 +21599,7 @@
         <v>14.306626999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>331</v>
       </c>
@@ -21637,7 +21628,7 @@
         <v>17.436848040000001</v>
       </c>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>331</v>
       </c>
@@ -21666,7 +21657,7 @@
         <v>31.74347504</v>
       </c>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>331</v>
       </c>
@@ -21695,7 +21686,7 @@
         <v>37.914285239999998</v>
       </c>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>331</v>
       </c>
@@ -21724,7 +21715,7 @@
         <v>39.382869119999995</v>
       </c>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>349</v>
       </c>
@@ -21753,7 +21744,7 @@
         <v>15.87173752</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>349</v>
       </c>
@@ -21782,7 +21773,7 @@
         <v>9.011451319999999</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>349</v>
       </c>
@@ -21811,7 +21802,7 @@
         <v>33.60506024</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>349</v>
       </c>
@@ -21840,7 +21831,7 @@
         <v>40.658399719999998</v>
       </c>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>349</v>
       </c>
@@ -21869,7 +21860,7 @@
         <v>40.858347760000001</v>
       </c>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>238</v>
       </c>
@@ -21898,7 +21889,7 @@
         <v>12.052040479999999</v>
       </c>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>238</v>
       </c>
@@ -21927,7 +21918,7 @@
         <v>17.540269439999999</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>296</v>
       </c>
@@ -21956,7 +21947,7 @@
         <v>18.91232668</v>
       </c>
     </row>
-    <row r="741" spans="1:9">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>296</v>
       </c>
@@ -21985,7 +21976,7 @@
         <v>25.179663519999998</v>
       </c>
     </row>
-    <row r="742" spans="1:9">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>297</v>
       </c>
@@ -22014,7 +22005,7 @@
         <v>30.9574724</v>
       </c>
     </row>
-    <row r="743" spans="1:9">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>480</v>
       </c>
@@ -22043,7 +22034,7 @@
         <v>43.892042159999995</v>
       </c>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>480</v>
       </c>
@@ -22072,7 +22063,7 @@
         <v>54.275550719999998</v>
       </c>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>397</v>
       </c>
@@ -22101,7 +22092,7 @@
         <v>36.935229319999998</v>
       </c>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>281</v>
       </c>
@@ -22130,7 +22121,7 @@
         <v>14.49968028</v>
       </c>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>281</v>
       </c>
@@ -22159,7 +22150,7 @@
         <v>22.435549039999998</v>
       </c>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>500</v>
       </c>
@@ -22188,7 +22179,7 @@
         <v>12.638095079999999</v>
       </c>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>500</v>
       </c>
@@ -22217,7 +22208,7 @@
         <v>26.062192799999998</v>
       </c>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>500</v>
       </c>
@@ -22246,7 +22237,7 @@
         <v>33.212058919999997</v>
       </c>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>500</v>
       </c>
@@ -22275,7 +22266,7 @@
         <v>36.935229319999998</v>
       </c>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>500</v>
       </c>
@@ -22304,7 +22295,7 @@
         <v>44.091990199999998</v>
       </c>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>540</v>
       </c>
@@ -22333,7 +22324,7 @@
         <v>52.61391356</v>
       </c>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>540</v>
       </c>
@@ -22362,7 +22353,7 @@
         <v>59.763779679999999</v>
       </c>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>540</v>
       </c>
@@ -22391,7 +22382,7 @@
         <v>67.306647119999994</v>
       </c>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>540</v>
       </c>
@@ -22420,7 +22411,7 @@
         <v>69.657760279999991</v>
       </c>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>540</v>
       </c>
@@ -22449,7 +22440,7 @@
         <v>71.62276688</v>
       </c>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>540</v>
       </c>
@@ -22478,7 +22469,7 @@
         <v>74.166933319999998</v>
       </c>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>350</v>
       </c>
@@ -22507,7 +22498,7 @@
         <v>18.12632404</v>
       </c>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>350</v>
       </c>
@@ -22536,7 +22527,7 @@
         <v>22.532075679999998</v>
       </c>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>350</v>
       </c>
@@ -22565,7 +22556,7 @@
         <v>27.337723399999998</v>
       </c>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>350</v>
       </c>
@@ -22594,7 +22585,7 @@
         <v>29.97841648</v>
       </c>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>350</v>
       </c>
@@ -22623,7 +22614,7 @@
         <v>31.35047372</v>
       </c>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>350</v>
       </c>
@@ -22652,7 +22643,7 @@
         <v>32.72253096</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>385</v>
       </c>
@@ -22681,7 +22672,7 @@
         <v>6.2673368399999996</v>
       </c>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>385</v>
       </c>
@@ -22710,7 +22701,7 @@
         <v>14.699628319999999</v>
       </c>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>385</v>
       </c>
@@ -22739,7 +22730,7 @@
         <v>23.221551679999997</v>
       </c>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>385</v>
       </c>
@@ -22768,7 +22759,7 @@
         <v>27.923777999999999</v>
       </c>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>385</v>
       </c>
@@ -22797,7 +22788,7 @@
         <v>31.35047372</v>
       </c>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>331</v>
       </c>
@@ -22826,7 +22817,7 @@
         <v>38.996762560000001</v>
       </c>
     </row>
-    <row r="771" spans="1:9">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>331</v>
       </c>
@@ -22855,7 +22846,7 @@
         <v>41.244454319999996</v>
       </c>
     </row>
-    <row r="772" spans="1:9">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>349</v>
       </c>
@@ -22884,7 +22875,7 @@
         <v>14.98920824</v>
       </c>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>331</v>
       </c>
@@ -22913,7 +22904,7 @@
         <v>13.520624359999999</v>
       </c>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>382</v>
       </c>
@@ -22942,7 +22933,7 @@
         <v>24.000659559999999</v>
       </c>
     </row>
-    <row r="775" spans="1:9">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>382</v>
       </c>
@@ -22971,7 +22962,7 @@
         <v>37.424757280000001</v>
       </c>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>382</v>
       </c>
@@ -23000,7 +22991,7 @@
         <v>11.46598588</v>
       </c>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>281</v>
       </c>
@@ -23029,7 +23020,7 @@
         <v>22.435549039999998</v>
       </c>
     </row>
-    <row r="778" spans="1:9">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>339</v>
       </c>
@@ -23058,7 +23049,7 @@
         <v>21.160018439999998</v>
       </c>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>339</v>
       </c>
@@ -23087,7 +23078,7 @@
         <v>31.84000168</v>
       </c>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>295</v>
       </c>
@@ -23116,7 +23107,7 @@
         <v>14.796154959999999</v>
       </c>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>295</v>
       </c>
@@ -23145,7 +23136,7 @@
         <v>25.179663519999998</v>
       </c>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>238</v>
       </c>
@@ -23174,7 +23165,7 @@
         <v>17.540269439999999</v>
       </c>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>296</v>
       </c>
@@ -23203,7 +23194,7 @@
         <v>14.2032056</v>
       </c>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>296</v>
       </c>
@@ -23232,7 +23223,7 @@
         <v>21.649546399999998</v>
       </c>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>296</v>
       </c>
@@ -23261,7 +23252,7 @@
         <v>29.392361879999999</v>
       </c>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>331</v>
       </c>
@@ -23290,7 +23281,7 @@
         <v>13.520624359999999</v>
       </c>
     </row>
-    <row r="787" spans="1:9">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>331</v>
       </c>
@@ -23319,7 +23310,7 @@
         <v>16.26473884</v>
       </c>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>331</v>
       </c>
@@ -23348,7 +23339,7 @@
         <v>31.447000360000001</v>
       </c>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>331</v>
       </c>
@@ -23377,7 +23368,7 @@
         <v>37.231704000000001</v>
       </c>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>349</v>
       </c>
@@ -23406,7 +23397,7 @@
         <v>18.12632404</v>
       </c>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>349</v>
       </c>
@@ -23435,7 +23426,7 @@
         <v>32.72253096</v>
       </c>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>349</v>
       </c>
@@ -23464,7 +23455,7 @@
         <v>39.486290519999997</v>
       </c>
     </row>
-    <row r="793" spans="1:9">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>349</v>
       </c>
@@ -23493,7 +23484,7 @@
         <v>41.051401040000002</v>
       </c>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>349</v>
       </c>
@@ -23522,7 +23513,7 @@
         <v>42.126983599999996</v>
       </c>
     </row>
-    <row r="795" spans="1:9">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>302</v>
       </c>
@@ -23551,7 +23542,7 @@
         <v>18.12632404</v>
       </c>
     </row>
-    <row r="796" spans="1:9">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>302</v>
       </c>
@@ -23580,7 +23571,7 @@
         <v>26.744774039999999</v>
       </c>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>525</v>
       </c>
@@ -23609,7 +23600,7 @@
         <v>61.921839559999995</v>
       </c>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>500</v>
       </c>
@@ -23638,7 +23629,7 @@
         <v>47.22221124</v>
       </c>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>500</v>
       </c>
@@ -23667,7 +23658,7 @@
         <v>51.041908280000001</v>
       </c>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>500</v>
       </c>
@@ -23696,7 +23687,7 @@
         <v>55.158079999999998</v>
       </c>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>540</v>
       </c>
@@ -23725,7 +23716,7 @@
         <v>41.637455639999999</v>
       </c>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>252</v>
       </c>
@@ -23754,7 +23745,7 @@
         <v>13.71367764</v>
       </c>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>252</v>
       </c>
@@ -23783,7 +23774,7 @@
         <v>19.691434559999998</v>
       </c>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>339</v>
       </c>
@@ -23812,7 +23803,7 @@
         <v>31.646948399999999</v>
       </c>
     </row>
-    <row r="805" spans="1:9">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>393</v>
       </c>
@@ -23841,7 +23832,7 @@
         <v>19.10537996</v>
       </c>
     </row>
-    <row r="806" spans="1:9">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>393</v>
       </c>
@@ -23870,7 +23861,7 @@
         <v>39.582817159999998</v>
       </c>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>393</v>
       </c>
@@ -23899,7 +23890,7 @@
         <v>48.794216519999999</v>
       </c>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>382</v>
       </c>
@@ -23928,7 +23919,7 @@
         <v>24.000659559999999</v>
       </c>
     </row>
-    <row r="809" spans="1:9">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>382</v>
       </c>
@@ -23957,7 +23948,7 @@
         <v>37.424757280000001</v>
       </c>
     </row>
-    <row r="810" spans="1:9">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>252</v>
       </c>
@@ -23986,7 +23977,7 @@
         <v>11.46598588</v>
       </c>
     </row>
-    <row r="811" spans="1:9">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>252</v>
       </c>
@@ -24015,7 +24006,7 @@
         <v>19.691434559999998</v>
       </c>
     </row>
-    <row r="812" spans="1:9">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>310</v>
       </c>
@@ -24044,7 +24035,7 @@
         <v>14.98920824</v>
       </c>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>310</v>
       </c>
@@ -24073,7 +24064,7 @@
         <v>27.923777999999999</v>
       </c>
     </row>
-    <row r="814" spans="1:9">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>310</v>
       </c>
@@ -24102,7 +24093,7 @@
         <v>34.680642800000001</v>
       </c>
     </row>
-    <row r="815" spans="1:9">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>310</v>
       </c>
@@ -24131,7 +24122,7 @@
         <v>37.328230640000001</v>
       </c>
     </row>
-    <row r="816" spans="1:9">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>310</v>
       </c>
@@ -24160,7 +24151,7 @@
         <v>38.114233280000001</v>
       </c>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>525</v>
       </c>
@@ -24189,7 +24180,7 @@
         <v>33.798113520000001</v>
       </c>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>525</v>
       </c>
@@ -24218,7 +24209,7 @@
         <v>42.423458279999998</v>
       </c>
     </row>
-    <row r="819" spans="1:9">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>525</v>
       </c>
@@ -24247,7 +24238,7 @@
         <v>48.401215199999996</v>
       </c>
     </row>
-    <row r="820" spans="1:9">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>525</v>
       </c>
@@ -24276,7 +24267,7 @@
         <v>55.944082639999998</v>
       </c>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>525</v>
       </c>
@@ -24305,7 +24296,7 @@
         <v>58.784723759999999</v>
       </c>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>525</v>
       </c>
@@ -24334,7 +24325,7 @@
         <v>67.113593839999993</v>
       </c>
     </row>
-    <row r="823" spans="1:9">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>322</v>
       </c>
@@ -24363,7 +24354,7 @@
         <v>20.77391188</v>
       </c>
     </row>
-    <row r="824" spans="1:9">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>322</v>
       </c>
@@ -24392,7 +24383,7 @@
         <v>25.179663519999998</v>
       </c>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>322</v>
       </c>
@@ -24421,7 +24412,7 @@
         <v>29.58541516</v>
       </c>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>302</v>
       </c>
@@ -24450,7 +24441,7 @@
         <v>21.7529678</v>
       </c>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>397</v>
       </c>
@@ -24479,7 +24470,7 @@
         <v>39.093289200000001</v>
       </c>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>480</v>
       </c>
@@ -24508,7 +24499,7 @@
         <v>24.393660879999999</v>
       </c>
     </row>
-    <row r="829" spans="1:9">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>522</v>
       </c>
@@ -24537,7 +24528,7 @@
         <v>50.511011759999995</v>
       </c>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>522</v>
       </c>
@@ -24566,7 +24557,7 @@
         <v>74.987409759999991</v>
       </c>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>273</v>
       </c>
@@ -24595,7 +24586,7 @@
         <v>37.169651160000001</v>
       </c>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>162</v>
       </c>
@@ -24624,7 +24615,7 @@
         <v>33.756744959999999</v>
       </c>
     </row>
-    <row r="833" spans="1:9">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>154</v>
       </c>
@@ -24653,7 +24644,7 @@
         <v>16.499160679999999</v>
       </c>
     </row>
-    <row r="834" spans="1:9">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>147</v>
       </c>
@@ -24682,7 +24673,7 @@
         <v>19.98790924</v>
       </c>
     </row>
-    <row r="835" spans="1:9">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>152</v>
       </c>
@@ -24711,7 +24702,7 @@
         <v>36.349174720000001</v>
       </c>
     </row>
-    <row r="836" spans="1:9">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>310</v>
       </c>
@@ -24740,7 +24731,7 @@
         <v>33.687797359999998</v>
       </c>
     </row>
-    <row r="837" spans="1:9">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>144</v>
       </c>
@@ -24769,7 +24760,7 @@
         <v>15.41668336</v>
       </c>
     </row>
-    <row r="838" spans="1:9">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>304</v>
       </c>
@@ -24798,7 +24789,7 @@
         <v>33.418901720000001</v>
       </c>
     </row>
-    <row r="839" spans="1:9">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>374</v>
       </c>
@@ -24827,7 +24818,7 @@
         <v>39.051920639999999</v>
       </c>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>159</v>
       </c>
@@ -24856,7 +24847,7 @@
         <v>27.67556664</v>
       </c>
     </row>
-    <row r="841" spans="1:9">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>153</v>
       </c>
@@ -24885,7 +24876,7 @@
         <v>26.855090199999999</v>
       </c>
     </row>
-    <row r="842" spans="1:9">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>310</v>
       </c>
@@ -24914,7 +24905,7 @@
         <v>45.2985732</v>
       </c>
     </row>
-    <row r="843" spans="1:9">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>305</v>
       </c>
@@ -24943,7 +24934,7 @@
         <v>30.123206440000001</v>
       </c>
     </row>
-    <row r="844" spans="1:9">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>151</v>
       </c>
@@ -24972,7 +24963,7 @@
         <v>15.568368079999999</v>
       </c>
     </row>
-    <row r="845" spans="1:9">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>142</v>
       </c>
@@ -25001,7 +24992,7 @@
         <v>44.609097200000001</v>
       </c>
     </row>
-    <row r="846" spans="1:9">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>298</v>
       </c>
@@ -25030,7 +25021,7 @@
         <v>53.524021879999999</v>
       </c>
     </row>
-    <row r="847" spans="1:9">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>321</v>
       </c>
@@ -25059,7 +25050,7 @@
         <v>57.212718479999999</v>
       </c>
     </row>
-    <row r="848" spans="1:9">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>366</v>
       </c>
@@ -25088,7 +25079,7 @@
         <v>65.907010839999998</v>
       </c>
     </row>
-    <row r="849" spans="1:9">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>280</v>
       </c>
@@ -25117,7 +25108,7 @@
         <v>52.820756359999997</v>
       </c>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>252</v>
       </c>
@@ -25146,7 +25137,7 @@
         <v>33.398217439999996</v>
       </c>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>165</v>
       </c>
@@ -25175,7 +25166,7 @@
         <v>18.0297974</v>
       </c>
     </row>
-    <row r="852" spans="1:9">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>156</v>
       </c>
@@ -25204,7 +25195,7 @@
         <v>37.362704440000002</v>
       </c>
     </row>
-    <row r="853" spans="1:9">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>160</v>
       </c>
@@ -25233,7 +25224,7 @@
         <v>32.839741879999998</v>
       </c>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>298</v>
       </c>
@@ -25262,7 +25253,7 @@
         <v>42.637195839999997</v>
       </c>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>318</v>
       </c>
@@ -25291,7 +25282,7 @@
         <v>40.058555599999998</v>
       </c>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>287</v>
       </c>
@@ -25320,7 +25311,7 @@
         <v>41.940825079999996</v>
       </c>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>326</v>
       </c>
@@ -25349,7 +25340,7 @@
         <v>61.232363559999996</v>
       </c>
     </row>
-    <row r="858" spans="1:9">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>356</v>
       </c>
@@ -25378,7 +25369,7 @@
         <v>40.865242519999995</v>
       </c>
     </row>
-    <row r="859" spans="1:9">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>132</v>
       </c>
@@ -25407,7 +25398,7 @@
         <v>33.301690799999996</v>
       </c>
     </row>
-    <row r="860" spans="1:9">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>322</v>
       </c>
@@ -25436,7 +25427,7 @@
         <v>52.420860279999999</v>
       </c>
     </row>
-    <row r="861" spans="1:9">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>164</v>
       </c>
@@ -25465,7 +25456,7 @@
         <v>15.08573488</v>
       </c>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>314</v>
       </c>
@@ -25494,7 +25485,7 @@
         <v>38.45897128</v>
       </c>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>321</v>
       </c>
@@ -25523,7 +25514,7 @@
         <v>37.25928304</v>
       </c>
     </row>
-    <row r="864" spans="1:9">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>140</v>
       </c>
@@ -25552,7 +25543,7 @@
         <v>35.225328839999996</v>
       </c>
     </row>
-    <row r="865" spans="1:9">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>288</v>
       </c>
@@ -25581,7 +25572,7 @@
         <v>42.133878359999997</v>
       </c>
     </row>
-    <row r="866" spans="1:9">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>298</v>
       </c>
@@ -25610,7 +25601,7 @@
         <v>31.874475479999997</v>
       </c>
     </row>
-    <row r="867" spans="1:9">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>265</v>
       </c>
@@ -25639,7 +25630,7 @@
         <v>41.540928999999998</v>
       </c>
     </row>
-    <row r="868" spans="1:9">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>160</v>
       </c>
@@ -25668,7 +25659,7 @@
         <v>39.451816719999997</v>
       </c>
     </row>
-    <row r="869" spans="1:9">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>166</v>
       </c>
@@ -25697,7 +25688,7 @@
         <v>37.914285239999998</v>
       </c>
     </row>
-    <row r="870" spans="1:9">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>276</v>
       </c>
@@ -25726,7 +25717,7 @@
         <v>44.278148719999997</v>
       </c>
     </row>
-    <row r="871" spans="1:9">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>322</v>
       </c>
@@ -25755,7 +25746,7 @@
         <v>31.17810472</v>
       </c>
     </row>
-    <row r="872" spans="1:9">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>149</v>
       </c>
@@ -25784,7 +25775,7 @@
         <v>23.69039536</v>
       </c>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>159</v>
       </c>
@@ -25813,7 +25804,7 @@
         <v>32.763899519999995</v>
       </c>
     </row>
-    <row r="874" spans="1:9">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>261</v>
       </c>
@@ -25842,7 +25833,7 @@
         <v>32.398477239999998</v>
       </c>
     </row>
-    <row r="875" spans="1:9">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>237</v>
       </c>
@@ -25871,7 +25862,7 @@
         <v>28.627043520000001</v>
       </c>
     </row>
-    <row r="876" spans="1:9">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>313</v>
       </c>
@@ -25900,7 +25891,7 @@
         <v>36.804228879999997</v>
       </c>
     </row>
-    <row r="877" spans="1:9">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>155</v>
       </c>
@@ -25929,7 +25920,7 @@
         <v>18.28490352</v>
       </c>
     </row>
-    <row r="878" spans="1:9">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>146</v>
       </c>
@@ -25958,7 +25949,7 @@
         <v>33.060374199999998</v>
       </c>
     </row>
-    <row r="879" spans="1:9">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>296</v>
       </c>
@@ -25987,7 +25978,7 @@
         <v>31.419421319999998</v>
       </c>
     </row>
-    <row r="880" spans="1:9">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>133</v>
       </c>
@@ -26016,7 +26007,7 @@
         <v>31.026419999999998</v>
       </c>
     </row>
-    <row r="881" spans="1:9">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>313</v>
       </c>
@@ -26045,7 +26036,7 @@
         <v>44.388464880000001</v>
       </c>
     </row>
-    <row r="882" spans="1:9">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>152</v>
       </c>
@@ -26074,7 +26065,7 @@
         <v>12.17614616</v>
       </c>
     </row>
-    <row r="883" spans="1:9">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>153</v>
       </c>
@@ -26103,7 +26094,7 @@
         <v>25.558875319999999</v>
       </c>
     </row>
-    <row r="884" spans="1:9">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>140</v>
       </c>
@@ -26132,7 +26123,7 @@
         <v>36.438806599999999</v>
       </c>
     </row>
-    <row r="885" spans="1:9">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>149</v>
       </c>
@@ -26161,7 +26152,7 @@
         <v>32.956952799999996</v>
       </c>
     </row>
-    <row r="886" spans="1:9">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>300</v>
       </c>
@@ -26190,7 +26181,7 @@
         <v>23.835185320000001</v>
       </c>
     </row>
-    <row r="887" spans="1:9">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>153</v>
       </c>
@@ -26219,7 +26210,7 @@
         <v>26.22766704</v>
       </c>
     </row>
-    <row r="888" spans="1:9">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>148</v>
       </c>
@@ -26248,7 +26239,7 @@
         <v>17.95395504</v>
       </c>
     </row>
-    <row r="889" spans="1:9">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>326</v>
       </c>
@@ -26277,7 +26268,7 @@
         <v>40.679083999999996</v>
       </c>
     </row>
-    <row r="890" spans="1:9">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>153</v>
       </c>
@@ -26306,7 +26297,7 @@
         <v>19.00885332</v>
       </c>
     </row>
-    <row r="891" spans="1:9">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>262</v>
       </c>
@@ -26335,7 +26326,7 @@
         <v>33.715376399999997</v>
       </c>
     </row>
-    <row r="892" spans="1:9">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>158</v>
       </c>
@@ -26364,7 +26355,7 @@
         <v>8.5357128800000002</v>
       </c>
     </row>
-    <row r="893" spans="1:9">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>151</v>
       </c>
@@ -26393,7 +26384,7 @@
         <v>13.45857152</v>
       </c>
     </row>
-    <row r="894" spans="1:9">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>273</v>
       </c>
@@ -26422,7 +26413,7 @@
         <v>32.239897759999998</v>
       </c>
     </row>
-    <row r="895" spans="1:9">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>149</v>
       </c>
@@ -26451,7 +26442,7 @@
         <v>23.51802636</v>
       </c>
     </row>
-    <row r="896" spans="1:9">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>143</v>
       </c>
@@ -26480,7 +26471,7 @@
         <v>29.723310359999999</v>
       </c>
     </row>
-    <row r="897" spans="1:9">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>260</v>
       </c>
@@ -26509,7 +26500,7 @@
         <v>49.77327244</v>
       </c>
     </row>
-    <row r="898" spans="1:9">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>313</v>
       </c>
@@ -26538,7 +26529,7 @@
         <v>52.441544559999997</v>
       </c>
     </row>
-    <row r="899" spans="1:9">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>284</v>
       </c>
@@ -26567,7 +26558,7 @@
         <v>40.934190119999997</v>
       </c>
     </row>
-    <row r="900" spans="1:9">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>336</v>
       </c>
@@ -26596,7 +26587,7 @@
         <v>44.864203320000001</v>
       </c>
     </row>
-    <row r="901" spans="1:9">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>145</v>
       </c>
@@ -26625,7 +26616,7 @@
         <v>13.196570639999999</v>
       </c>
     </row>
-    <row r="902" spans="1:9">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>150</v>
       </c>
@@ -26654,7 +26645,7 @@
         <v>37.431652039999996</v>
       </c>
     </row>
-    <row r="903" spans="1:9">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>144</v>
       </c>
@@ -26683,7 +26674,7 @@
         <v>29.86810032</v>
       </c>
     </row>
-    <row r="904" spans="1:9">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>331</v>
       </c>
@@ -26712,7 +26703,7 @@
         <v>56.612874359999999</v>
       </c>
     </row>
-    <row r="905" spans="1:9">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>155</v>
       </c>
@@ -26741,7 +26732,7 @@
         <v>12.45883132</v>
       </c>
     </row>
-    <row r="906" spans="1:9">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>155</v>
       </c>
@@ -26770,7 +26761,7 @@
         <v>23.786922000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:9">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>135</v>
       </c>
@@ -26799,7 +26790,7 @@
         <v>13.29309728</v>
       </c>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>266</v>
       </c>
@@ -26828,7 +26819,7 @@
         <v>39.417342919999996</v>
       </c>
     </row>
-    <row r="909" spans="1:9">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>314</v>
       </c>
@@ -26857,7 +26848,7 @@
         <v>46.229365799999997</v>
       </c>
     </row>
-    <row r="910" spans="1:9">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>313</v>
       </c>
@@ -26886,7 +26877,7 @@
         <v>44.519465320000002</v>
       </c>
     </row>
-    <row r="911" spans="1:9">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>146</v>
       </c>
@@ -26915,7 +26906,7 @@
         <v>23.73865868</v>
       </c>
     </row>
-    <row r="912" spans="1:9">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>144</v>
       </c>
@@ -26944,7 +26935,7 @@
         <v>26.144929919999999</v>
       </c>
     </row>
-    <row r="913" spans="1:9">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>148</v>
       </c>
@@ -26973,7 +26964,7 @@
         <v>15.520104759999999</v>
       </c>
     </row>
-    <row r="914" spans="1:9">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>277</v>
       </c>
@@ -27002,7 +26993,7 @@
         <v>43.574883200000002</v>
       </c>
     </row>
-    <row r="915" spans="1:9">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>298</v>
       </c>
@@ -27031,7 +27022,7 @@
         <v>35.859646759999997</v>
       </c>
     </row>
-    <row r="916" spans="1:9">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>313</v>
       </c>
@@ -27060,7 +27051,7 @@
         <v>41.051401040000002</v>
       </c>
     </row>
-    <row r="917" spans="1:9">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>155</v>
       </c>
@@ -27089,7 +27080,7 @@
         <v>28.98557104</v>
       </c>
     </row>
-    <row r="918" spans="1:9">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>289</v>
       </c>
@@ -27118,7 +27109,7 @@
         <v>46.24315532</v>
       </c>
     </row>
-    <row r="919" spans="1:9">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>148</v>
       </c>
@@ -27147,7 +27138,7 @@
         <v>26.917143039999999</v>
       </c>
     </row>
-    <row r="920" spans="1:9">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>145</v>
       </c>
@@ -27176,7 +27167,7 @@
         <v>10.53519328</v>
       </c>
     </row>
-    <row r="921" spans="1:9">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>313</v>
       </c>
@@ -27205,7 +27196,7 @@
         <v>25.096926400000001</v>
       </c>
     </row>
-    <row r="922" spans="1:9">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>136</v>
       </c>
@@ -27234,7 +27225,7 @@
         <v>29.068308160000001</v>
       </c>
     </row>
-    <row r="923" spans="1:9">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>155</v>
       </c>
@@ -27263,7 +27254,7 @@
         <v>9.7354011199999988</v>
       </c>
     </row>
-    <row r="924" spans="1:9">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>255</v>
       </c>
@@ -27292,7 +27283,7 @@
         <v>33.798113520000001</v>
       </c>
     </row>
-    <row r="925" spans="1:9">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>162</v>
       </c>
@@ -27321,7 +27312,7 @@
         <v>39.84481804</v>
       </c>
     </row>
-    <row r="926" spans="1:9">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>136</v>
       </c>
@@ -27350,7 +27341,7 @@
         <v>26.965406359999999</v>
       </c>
     </row>
-    <row r="927" spans="1:9">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>164</v>
       </c>
@@ -27379,7 +27370,7 @@
         <v>27.234302</v>
       </c>
     </row>
-    <row r="928" spans="1:9">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>162</v>
       </c>
@@ -27408,7 +27399,7 @@
         <v>30.647208199999998</v>
       </c>
     </row>
-    <row r="929" spans="1:9">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>157</v>
       </c>
@@ -27437,7 +27428,7 @@
         <v>33.053479439999997</v>
       </c>
     </row>
-    <row r="930" spans="1:9">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>149</v>
       </c>
@@ -27466,7 +27457,7 @@
         <v>24.579819399999998</v>
       </c>
     </row>
-    <row r="931" spans="1:9">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>135</v>
       </c>
@@ -27495,7 +27486,7 @@
         <v>21.911547280000001</v>
       </c>
     </row>
-    <row r="932" spans="1:9">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>159</v>
       </c>
@@ -27524,7 +27515,7 @@
         <v>30.881630039999997</v>
       </c>
     </row>
-    <row r="933" spans="1:9">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>144</v>
       </c>
@@ -27553,7 +27544,7 @@
         <v>15.340840999999999</v>
       </c>
     </row>
-    <row r="934" spans="1:9">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>154</v>
       </c>
@@ -27582,7 +27573,7 @@
         <v>24.338502800000001</v>
       </c>
     </row>
-    <row r="935" spans="1:9">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>167</v>
       </c>
@@ -27611,7 +27602,7 @@
         <v>23.890343399999999</v>
       </c>
     </row>
-    <row r="936" spans="1:9">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>184</v>
       </c>
@@ -27640,7 +27631,7 @@
         <v>22.93197176</v>
       </c>
     </row>
-    <row r="937" spans="1:9">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>156</v>
       </c>
@@ -27669,7 +27660,7 @@
         <v>29.41304616</v>
       </c>
     </row>
-    <row r="938" spans="1:9">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>236.9</v>
       </c>
@@ -27698,7 +27689,7 @@
         <v>28.629801423999997</v>
       </c>
     </row>
-    <row r="939" spans="1:9">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>313.3</v>
       </c>
@@ -27727,7 +27718,7 @@
         <v>36.804918356000002</v>
       </c>
     </row>
-    <row r="940" spans="1:9">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>154.80000000000001</v>
       </c>
@@ -27756,7 +27747,7 @@
         <v>18.287661423999999</v>
       </c>
     </row>
-    <row r="941" spans="1:9">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>145.9</v>
       </c>
@@ -27785,7 +27776,7 @@
         <v>32.720462531999999</v>
       </c>
     </row>
-    <row r="942" spans="1:9">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>296</v>
       </c>
@@ -27814,7 +27805,7 @@
         <v>31.420110796000003</v>
       </c>
     </row>
-    <row r="943" spans="1:9">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>133.1</v>
       </c>
@@ -27843,7 +27834,7 @@
         <v>28.937997196000001</v>
       </c>
     </row>
-    <row r="944" spans="1:9">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>313.3</v>
       </c>
@@ -27872,7 +27863,7 @@
         <v>40.925226931999994</v>
       </c>
     </row>
-    <row r="945" spans="1:9">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>151.6</v>
       </c>
@@ -27901,7 +27892,7 @@
         <v>12.180972492</v>
       </c>
     </row>
-    <row r="946" spans="1:9">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>153.1</v>
       </c>
@@ -27930,7 +27921,7 @@
         <v>25.559564796</v>
       </c>
     </row>
-    <row r="947" spans="1:9">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>139.9</v>
       </c>
@@ -27959,7 +27950,7 @@
         <v>36.443632932</v>
       </c>
     </row>
-    <row r="948" spans="1:9">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>149.5</v>
       </c>
@@ -27988,7 +27979,7 @@
         <v>32.963847559999998</v>
       </c>
     </row>
-    <row r="949" spans="1:9">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>299.8</v>
       </c>
@@ -28017,7 +28008,7 @@
         <v>23.835874795999999</v>
       </c>
     </row>
-    <row r="950" spans="1:9">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>153.1</v>
       </c>
@@ -28046,7 +28037,7 @@
         <v>26.233182848000002</v>
       </c>
     </row>
-    <row r="951" spans="1:9">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>148.1</v>
       </c>
@@ -28075,7 +28066,7 @@
         <v>17.959470848000002</v>
       </c>
     </row>
-    <row r="952" spans="1:9">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>326.5</v>
       </c>
@@ -28104,7 +28095,7 @@
         <v>38.630650803999998</v>
       </c>
     </row>
-    <row r="953" spans="1:9">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>152.69999999999999</v>
       </c>
@@ -28133,7 +28124,7 @@
         <v>19.009542795999998</v>
       </c>
     </row>
-    <row r="954" spans="1:9">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>261.89999999999998</v>
       </c>
@@ -28162,7 +28153,7 @@
         <v>33.718823780000001</v>
       </c>
     </row>
-    <row r="955" spans="1:9">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>158.4</v>
       </c>
@@ -28191,7 +28182,7 @@
         <v>8.536402356</v>
       </c>
     </row>
-    <row r="956" spans="1:9">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>150.69999999999999</v>
       </c>
@@ -28220,7 +28211,7 @@
         <v>13.461329424000001</v>
       </c>
     </row>
-    <row r="957" spans="1:9">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>272.60000000000002</v>
       </c>
@@ -28249,7 +28240,7 @@
         <v>32.245413568000004</v>
       </c>
     </row>
-    <row r="958" spans="1:9">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>149</v>
       </c>
@@ -28278,7 +28269,7 @@
         <v>23.524231644</v>
       </c>
     </row>
-    <row r="959" spans="1:9">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>143</v>
       </c>
@@ -28307,7 +28298,7 @@
         <v>29.726068263999995</v>
       </c>
     </row>
-    <row r="960" spans="1:9">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>259.89999999999998</v>
       </c>
@@ -28336,7 +28327,7 @@
         <v>49.77327244</v>
       </c>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>312.89999999999998</v>
       </c>
@@ -28365,7 +28356,7 @@
         <v>52.446370891999997</v>
       </c>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>284</v>
       </c>
@@ -28394,7 +28385,7 @@
         <v>40.934879596000002</v>
       </c>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>336.5</v>
       </c>
@@ -28423,7 +28414,7 @@
         <v>44.868340176000004</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>144.80000000000001</v>
       </c>
@@ -28452,7 +28443,7 @@
         <v>13.202086447999999</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>150</v>
       </c>
@@ -28481,7 +28472,7 @@
         <v>37.431652039999996</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>143.69999999999999</v>
       </c>
@@ -28510,7 +28501,7 @@
         <v>29.870858223999996</v>
       </c>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>330.5</v>
       </c>
@@ -28539,7 +28530,7 @@
         <v>56.619079643999996</v>
       </c>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>154.80000000000001</v>
       </c>
@@ -28568,7 +28559,7 @@
         <v>12.459520796</v>
       </c>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>154.80000000000001</v>
       </c>
@@ -28597,7 +28588,7 @@
         <v>23.786922000000001</v>
       </c>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>134.69999999999999</v>
       </c>
@@ -28626,7 +28617,7 @@
         <v>13.293786755999999</v>
       </c>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>266.2</v>
       </c>
@@ -28655,7 +28646,7 @@
         <v>39.421479775999998</v>
       </c>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>314</v>
       </c>
@@ -28684,7 +28675,7 @@
         <v>46.234192131999997</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>312.7</v>
       </c>
@@ -28713,7 +28704,7 @@
         <v>44.523602176000004</v>
       </c>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>145.69999999999999</v>
       </c>
@@ -28742,7 +28733,7 @@
         <v>23.744174487999999</v>
       </c>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>143.80000000000001</v>
       </c>
@@ -28771,7 +28762,7 @@
         <v>26.147687823999998</v>
       </c>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>148.1</v>
       </c>
@@ -28800,7 +28791,7 @@
         <v>15.526310044000001</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>277</v>
       </c>
@@ -28829,7 +28820,7 @@
         <v>43.578330579999999</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>298.10000000000002</v>
       </c>
@@ -28858,7 +28849,7 @@
         <v>35.865852043999993</v>
       </c>
     </row>
-    <row r="979" spans="1:9">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>313.3</v>
       </c>
@@ -28887,7 +28878,7 @@
         <v>41.053469468000003</v>
       </c>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>155.19999999999999</v>
       </c>
@@ -28916,7 +28907,7 @@
         <v>28.991086848000002</v>
       </c>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>289</v>
       </c>
@@ -28945,7 +28936,7 @@
         <v>46.247292176000002</v>
       </c>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>147.80000000000001</v>
       </c>
@@ -28974,7 +28965,7 @@
         <v>26.922658848000001</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>145.4</v>
       </c>
@@ -29003,7 +28994,7 @@
         <v>10.535882755999999</v>
       </c>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>312.7</v>
       </c>
@@ -29032,7 +29023,7 @@
         <v>25.103821159999999</v>
       </c>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>136.4</v>
       </c>
@@ -29061,7 +29052,7 @@
         <v>29.073134491999998</v>
       </c>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>154.80000000000001</v>
       </c>
@@ -29090,7 +29081,7 @@
         <v>9.7381590239999998</v>
       </c>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>255.3</v>
       </c>
@@ -29119,7 +29110,7 @@
         <v>33.798802995999999</v>
       </c>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>272.8</v>
       </c>
@@ -29148,7 +29139,7 @@
         <v>37.171030111999997</v>
       </c>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>162</v>
       </c>
@@ -29177,7 +29168,7 @@
         <v>33.762260767999997</v>
       </c>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>153.6</v>
       </c>
@@ -29206,7 +29197,7 @@
         <v>16.503987012</v>
       </c>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>146.5</v>
       </c>
@@ -29235,7 +29226,7 @@
         <v>19.98790924</v>
       </c>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>151.80000000000001</v>
       </c>
@@ -29264,7 +29255,7 @@
         <v>36.349864195999999</v>
       </c>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>309.89999999999998</v>
       </c>
@@ -29293,7 +29284,7 @@
         <v>38.215586251999994</v>
       </c>
     </row>
-    <row r="994" spans="1:9">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>143.6</v>
       </c>
@@ -29322,7 +29313,7 @@
         <v>15.42357812</v>
       </c>
     </row>
-    <row r="995" spans="1:9">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>303.60000000000002</v>
       </c>
@@ -29351,7 +29342,7 @@
         <v>33.419591195999999</v>
       </c>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>374.3</v>
       </c>
@@ -29380,7 +29371,7 @@
         <v>39.056057496000001</v>
       </c>
     </row>
-    <row r="997" spans="1:9">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>158.6</v>
       </c>
@@ -29409,7 +29400,7 @@
         <v>27.681082448000002</v>
       </c>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>152.6</v>
       </c>
@@ -29438,7 +29429,7 @@
         <v>26.859916531999996</v>
       </c>
     </row>
-    <row r="999" spans="1:9">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>310</v>
       </c>
@@ -29467,7 +29458,7 @@
         <v>45.304778483999996</v>
       </c>
     </row>
-    <row r="1000" spans="1:9">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>304.8</v>
       </c>
@@ -29496,7 +29487,7 @@
         <v>30.123206440000001</v>
       </c>
     </row>
-    <row r="1001" spans="1:9">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>150.9</v>
       </c>
@@ -29525,7 +29516,7 @@
         <v>15.569747031999999</v>
       </c>
     </row>
-    <row r="1002" spans="1:9">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>141.9</v>
       </c>
@@ -29554,7 +29545,7 @@
         <v>44.611855103999993</v>
       </c>
     </row>
-    <row r="1003" spans="1:9">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>297.8</v>
       </c>
@@ -29583,7 +29574,7 @@
         <v>53.524711355999997</v>
       </c>
     </row>
-    <row r="1004" spans="1:9">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>321.3</v>
       </c>
@@ -29612,7 +29603,7 @@
         <v>57.218234287999991</v>
       </c>
     </row>
-    <row r="1005" spans="1:9">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>366</v>
       </c>
@@ -29641,7 +29632,7 @@
         <v>65.909079267999999</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>279.8</v>
       </c>
@@ -29670,7 +29661,7 @@
         <v>52.826961643999994</v>
       </c>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>252.1</v>
       </c>
@@ -29699,7 +29690,7 @@
         <v>33.399596391999999</v>
       </c>
     </row>
-    <row r="1008" spans="1:9">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>164.6</v>
       </c>
@@ -29728,7 +29719,7 @@
         <v>18.033934255999998</v>
       </c>
     </row>
-    <row r="1009" spans="1:9">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>155.6</v>
       </c>
@@ -29757,7 +29748,7 @@
         <v>37.363393916</v>
       </c>
     </row>
-    <row r="1010" spans="1:9">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>160.19999999999999</v>
       </c>
@@ -29786,7 +29777,7 @@
         <v>35.314271243999997</v>
       </c>
     </row>
-    <row r="1011" spans="1:9">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>298.10000000000002</v>
       </c>
@@ -29815,7 +29806,7 @@
         <v>42.644090599999998</v>
       </c>
     </row>
-    <row r="1012" spans="1:9">
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>317.89999999999998</v>
       </c>
@@ -29844,7 +29835,7 @@
         <v>40.062002979999995</v>
       </c>
     </row>
-    <row r="1013" spans="1:9">
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>287.3</v>
       </c>
@@ -29873,7 +29864,7 @@
         <v>43.798273423999994</v>
       </c>
     </row>
-    <row r="1014" spans="1:9">
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>325.60000000000002</v>
       </c>
@@ -29902,7 +29893,7 @@
         <v>61.23581094</v>
       </c>
     </row>
-    <row r="1015" spans="1:9">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>355.9</v>
       </c>
@@ -29931,7 +29922,7 @@
         <v>40.8686899</v>
       </c>
     </row>
-    <row r="1016" spans="1:9">
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
         <v>132</v>
       </c>
@@ -29960,7 +29951,7 @@
         <v>33.306517131999996</v>
       </c>
     </row>
-    <row r="1017" spans="1:9">
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>322.5</v>
       </c>
@@ -29989,7 +29980,7 @@
         <v>52.426376087999998</v>
       </c>
     </row>
-    <row r="1018" spans="1:9">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>164.2</v>
       </c>
@@ -30018,7 +30009,7 @@
         <v>15.091250688000001</v>
       </c>
     </row>
-    <row r="1019" spans="1:9">
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>313.8</v>
       </c>
@@ -30047,7 +30038,7 @@
         <v>38.461039708000001</v>
       </c>
     </row>
-    <row r="1020" spans="1:9">
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>321.39999999999998</v>
       </c>
@@ -30076,7 +30067,7 @@
         <v>37.265488323999996</v>
       </c>
     </row>
-    <row r="1021" spans="1:9">
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
         <v>139.69999999999999</v>
       </c>
@@ -30105,7 +30096,7 @@
         <v>35.225328839999996</v>
       </c>
     </row>
-    <row r="1022" spans="1:9">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>288.39999999999998</v>
       </c>
@@ -30134,7 +30125,7 @@
         <v>42.140083643999994</v>
       </c>
     </row>
-    <row r="1023" spans="1:9">
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
         <v>298.2</v>
       </c>
@@ -30163,7 +30154,7 @@
         <v>31.875164956000003</v>
       </c>
     </row>
-    <row r="1024" spans="1:9">
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
         <v>264.5</v>
       </c>
@@ -30192,7 +30183,7 @@
         <v>41.542307951999994</v>
       </c>
     </row>
-    <row r="1025" spans="1:9">
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>159.80000000000001</v>
       </c>
@@ -30221,7 +30212,7 @@
         <v>39.455953575999999</v>
       </c>
     </row>
-    <row r="1026" spans="1:9">
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>166</v>
       </c>
@@ -30250,7 +30241,7 @@
         <v>37.917043143999997</v>
       </c>
     </row>
-    <row r="1027" spans="1:9">
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>276.39999999999998</v>
       </c>
@@ -30279,7 +30270,7 @@
         <v>44.284354003999994</v>
       </c>
     </row>
-    <row r="1028" spans="1:9">
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
         <v>322.2</v>
       </c>
@@ -30308,7 +30299,7 @@
         <v>31.178794196000002</v>
       </c>
     </row>
-    <row r="1029" spans="1:9">
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
         <v>148.5</v>
       </c>
@@ -30337,7 +30328,7 @@
         <v>23.696600644</v>
       </c>
     </row>
-    <row r="1030" spans="1:9">
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>159.1</v>
       </c>
@@ -30366,7 +30357,7 @@
         <v>32.768036376000005</v>
       </c>
     </row>
-    <row r="1031" spans="1:9">
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>260.89999999999998</v>
       </c>
@@ -30407,9 +30398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30421,9 +30412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
